--- a/data/hotels_by_city/Denver/Denver_shard_77.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_77.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="841">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33445-d119980-Reviews-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
   </si>
   <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Extended-Stay-America-Denver-Cherry-Creek.h119140.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2427 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r574962913-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>33445</t>
+  </si>
+  <si>
+    <t>119980</t>
+  </si>
+  <si>
+    <t>574962913</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Great place.</t>
+  </si>
+  <si>
+    <t>Great room, friendly staff always smiling, front desk has gone over and beyond helping with all my needs. I will recommend this hotel go my friends and family. Convenient shopping, coffee is good and muffinsMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Great room, friendly staff always smiling, front desk has gone over and beyond helping with all my needs. I will recommend this hotel go my friends and family. Convenient shopping, coffee is good and muffinsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r574259683-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>574259683</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Contract Work</t>
+  </si>
+  <si>
+    <t>People friendly.  Good Housekeeping. Convenient to the A-line rail for easy access to Union Station  Also near Whole Foods, Trader Joes, and Sprouts as well as many shopping centers.  That is all that I can say.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded April 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2018</t>
+  </si>
+  <si>
+    <t>People friendly.  Good Housekeeping. Convenient to the A-line rail for easy access to Union Station  Also near Whole Foods, Trader Joes, and Sprouts as well as many shopping centers.  That is all that I can say.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r565282096-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>565282096</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Not satisfied</t>
+  </si>
+  <si>
+    <t>Refrigerator had food left in from last renters, floors were obviously not vacuumed. Trash and food left under bed. No garbage liners I had to ask for some. They ran out of the complementary shampoo for anyone our last 3 days. The shower nozzle settings are backwards and tempeture scolding or cold. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Refrigerator had food left in from last renters, floors were obviously not vacuumed. Trash and food left under bed. No garbage liners I had to ask for some. They ran out of the complementary shampoo for anyone our last 3 days. The shower nozzle settings are backwards and tempeture scolding or cold. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r551993086-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>551993086</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>Dirty expensive rooms plus neighbors with warrants .</t>
+  </si>
+  <si>
+    <t>I wouldn't recommend anyone stay here unless you have absolutely no other option. The room was disgusting and a couple of the neighbors got arrested for warrants. There was a stovetop but no pots or any dishes like advertised and then place looked like it hadn't been cleaned for months. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded January 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2018</t>
+  </si>
+  <si>
+    <t>I wouldn't recommend anyone stay here unless you have absolutely no other option. The room was disgusting and a couple of the neighbors got arrested for warrants. There was a stovetop but no pots or any dishes like advertised and then place looked like it hadn't been cleaned for months. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r550681173-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>550681173</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location and staff but room was dirty </t>
+  </si>
+  <si>
+    <t>We stayed at the extended stay in Glendale, Denver Colorado, for three days. It’s worth for the money we paid but when we got there the room had not been cleaned. We spoke to Kimberly (the receptionist) who in the absence of the house keeping lady went over and cleaned the room herself! Very helpful staff, excellent location, no much to complain. Thanks for your help KimberlyMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at the extended stay in Glendale, Denver Colorado, for three days. It’s worth for the money we paid but when we got there the room had not been cleaned. We spoke to Kimberly (the receptionist) who in the absence of the house keeping lady went over and cleaned the room herself! Very helpful staff, excellent location, no much to complain. Thanks for your help KimberlyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r551672790-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>551672790</t>
+  </si>
+  <si>
+    <t>11/23/2017</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>This hotel is walking distance from lots of stores. It is also very close to malls and many of the Denver area sites, Infinity Park, Garden of the Gods, and just south of the Denver Zoo. It is also great because they accept pets.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is walking distance from lots of stores. It is also very close to malls and many of the Denver area sites, Infinity Park, Garden of the Gods, and just south of the Denver Zoo. It is also great because they accept pets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r536322028-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>536322028</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Friendly, courteous and clean.</t>
+  </si>
+  <si>
+    <t>The help was friendly and helpful.  The price was right. We had to wait a short time to check in, . . 10 minutes- not bad.  The breakfast was very good for the price we thought it was very good and the coffee was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded October 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2017</t>
+  </si>
+  <si>
+    <t>The help was friendly and helpful.  The price was right. We had to wait a short time to check in, . . 10 minutes- not bad.  The breakfast was very good for the price we thought it was very good and the coffee was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r518975496-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>518975496</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Avoid this place at any coast!!</t>
+  </si>
+  <si>
+    <t>Book this place for two nights stay after one night stay had to leave  and seek medical assistance after one night stay with bad skin reaction to the smoke odor in room , dirty floor which has not been cleaned for quite some time , bathroom as well not cleaned, trash not pick up upon arrival at the room , smoke detector covered with plastic bag .When I brought up the issues to the reception they even accused me that it's my fault. STAY AWAY FROM THIS PLACE UNLESS WANT TO END UP IN HOSPITAL.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Book this place for two nights stay after one night stay had to leave  and seek medical assistance after one night stay with bad skin reaction to the smoke odor in room , dirty floor which has not been cleaned for quite some time , bathroom as well not cleaned, trash not pick up upon arrival at the room , smoke detector covered with plastic bag .When I brought up the issues to the reception they even accused me that it's my fault. STAY AWAY FROM THIS PLACE UNLESS WANT TO END UP IN HOSPITAL.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r509676810-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>509676810</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>A real dump</t>
+  </si>
+  <si>
+    <t>What avoid this place at all cost. It's old run-down poorly equipped with a lot of sketchy looking people stay in there exterior loaded corridors are creepy. For an Extended Stay place there was no hair dryer ironing board coffee pot coffee cup nothingMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>What avoid this place at all cost. It's old run-down poorly equipped with a lot of sketchy looking people stay in there exterior loaded corridors are creepy. For an Extended Stay place there was no hair dryer ironing board coffee pot coffee cup nothingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r505682991-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>505682991</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>The only rug in the room was dirty, not vacuumed, and had huge stains on it.  The counter was not washed and the tub was stained.  There was no kitchen utensils or anything to cook with.  The TV did not work at all.  The area of town seemed to be less than desirable. The bed was clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>The only rug in the room was dirty, not vacuumed, and had huge stains on it.  The counter was not washed and the tub was stained.  There was no kitchen utensils or anything to cook with.  The TV did not work at all.  The area of town seemed to be less than desirable. The bed was clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r502089903-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>502089903</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>A good deal for the price</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by the quietness of the hotel. It wasn't the cleanest, but it was a great value considering. I would surely stay again. Convenient and quiet location. As a single female, I was apprehensive about the stay but was pleasantly surprised.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded July 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2017</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by the quietness of the hotel. It wasn't the cleanest, but it was a great value considering. I would surely stay again. Convenient and quiet location. As a single female, I was apprehensive about the stay but was pleasantly surprised.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r532509338-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>532509338</t>
+  </si>
+  <si>
+    <t>Extended Disappointment America</t>
+  </si>
+  <si>
+    <t>I wouldn't recommend this hotel brand to my worst enemy...it's horrible! Filthy room, filthy premises, overflowing trash dumpster with broken gates, rat traps, but can see rats, cockroaches, spiders, dirty ripped linens and towels, worthless kitchenware, dying noisy fridge that was exchanged (after complaining no sleep for 3 nights) for one that freezes all your fresh vegetables and fruits, noisy, harassing and intimidating guest (construction workers, blue collar, etc.) snotty managers, incompetent managers and housekeeping, unhealthy breakfast optionsMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>I wouldn't recommend this hotel brand to my worst enemy...it's horrible! Filthy room, filthy premises, overflowing trash dumpster with broken gates, rat traps, but can see rats, cockroaches, spiders, dirty ripped linens and towels, worthless kitchenware, dying noisy fridge that was exchanged (after complaining no sleep for 3 nights) for one that freezes all your fresh vegetables and fruits, noisy, harassing and intimidating guest (construction workers, blue collar, etc.) snotty managers, incompetent managers and housekeeping, unhealthy breakfast optionsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r495299587-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>495299587</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Don't Get What You Book or Pay For</t>
+  </si>
+  <si>
+    <t>I booked a room with two beds for three people.  At check in, I was faced by a disgruntle employee that told me the room I booked was no longer available.  Instead, the she put us in a room with a king bed and sofa sleeper.  The sofa sleeper was a love seat containing only a mattress, zero bedding.  I called down to ask for blankets and pillows, and was informed only one pillow was available.  We were not even offered sheets.  Not to mention, there is no coffee or coffee makers in the room.  You have to ask for those appliances as well.  Guess they are worried about their customers leaving with them.  I asked the reservationist if this was an area with high criminal activity and she looked at me with a dirty look.  I was only asking because of the signs posted everywhere addressing criminal behavior and her need to have copies of my license.  I assume the signs are posted because of issues they may have had in the past, which makes me believe I am in an area that must have higher crime rate than their neighboring hotels that keep the coffee makers in the room.  Thank god we are moving to Staybridge tomorrow.    
+I was not offered a discount for being moved into a room that did NOT accommodate my group and was not furnished with supplies to make our stay more comfortable and...I booked a room with two beds for three people.  At check in, I was faced by a disgruntle employee that told me the room I booked was no longer available.  Instead, the she put us in a room with a king bed and sofa sleeper.  The sofa sleeper was a love seat containing only a mattress, zero bedding.  I called down to ask for blankets and pillows, and was informed only one pillow was available.  We were not even offered sheets.  Not to mention, there is no coffee or coffee makers in the room.  You have to ask for those appliances as well.  Guess they are worried about their customers leaving with them.  I asked the reservationist if this was an area with high criminal activity and she looked at me with a dirty look.  I was only asking because of the signs posted everywhere addressing criminal behavior and her need to have copies of my license.  I assume the signs are posted because of issues they may have had in the past, which makes me believe I am in an area that must have higher crime rate than their neighboring hotels that keep the coffee makers in the room.  Thank god we are moving to Staybridge tomorrow.     I was not offered a discount for being moved into a room that did NOT accommodate my group and was not furnished with supplies to make our stay more comfortable and had a broken toilet handle with mold in the bath tub.  I also asked for the AAA discount, she said it would only be $2.00 and wouldn't give it to me.  Never staying here again.  I would rather sleep in my car or on the street.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded June 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2017</t>
+  </si>
+  <si>
+    <t>I booked a room with two beds for three people.  At check in, I was faced by a disgruntle employee that told me the room I booked was no longer available.  Instead, the she put us in a room with a king bed and sofa sleeper.  The sofa sleeper was a love seat containing only a mattress, zero bedding.  I called down to ask for blankets and pillows, and was informed only one pillow was available.  We were not even offered sheets.  Not to mention, there is no coffee or coffee makers in the room.  You have to ask for those appliances as well.  Guess they are worried about their customers leaving with them.  I asked the reservationist if this was an area with high criminal activity and she looked at me with a dirty look.  I was only asking because of the signs posted everywhere addressing criminal behavior and her need to have copies of my license.  I assume the signs are posted because of issues they may have had in the past, which makes me believe I am in an area that must have higher crime rate than their neighboring hotels that keep the coffee makers in the room.  Thank god we are moving to Staybridge tomorrow.    
+I was not offered a discount for being moved into a room that did NOT accommodate my group and was not furnished with supplies to make our stay more comfortable and...I booked a room with two beds for three people.  At check in, I was faced by a disgruntle employee that told me the room I booked was no longer available.  Instead, the she put us in a room with a king bed and sofa sleeper.  The sofa sleeper was a love seat containing only a mattress, zero bedding.  I called down to ask for blankets and pillows, and was informed only one pillow was available.  We were not even offered sheets.  Not to mention, there is no coffee or coffee makers in the room.  You have to ask for those appliances as well.  Guess they are worried about their customers leaving with them.  I asked the reservationist if this was an area with high criminal activity and she looked at me with a dirty look.  I was only asking because of the signs posted everywhere addressing criminal behavior and her need to have copies of my license.  I assume the signs are posted because of issues they may have had in the past, which makes me believe I am in an area that must have higher crime rate than their neighboring hotels that keep the coffee makers in the room.  Thank god we are moving to Staybridge tomorrow.     I was not offered a discount for being moved into a room that did NOT accommodate my group and was not furnished with supplies to make our stay more comfortable and had a broken toilet handle with mold in the bath tub.  I also asked for the AAA discount, she said it would only be $2.00 and wouldn't give it to me.  Never staying here again.  I would rather sleep in my car or on the street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r492911812-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>492911812</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>Only if you have to...</t>
+  </si>
+  <si>
+    <t>I do not recommend the hotel unless you simply need a place to rest your head. I would never bring children or spouse here because it is dirty. The people at the hotel were nice but the shape of the hotel was abominable. The carpet was filthy and the bathroom was worse. The smell was overpowering. I was fortunate to get a few good nights rest after long days. This hotel was the only one available when I booked my last minute trip. If I had to do it again I would look somewhere further away if I need to.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>I do not recommend the hotel unless you simply need a place to rest your head. I would never bring children or spouse here because it is dirty. The people at the hotel were nice but the shape of the hotel was abominable. The carpet was filthy and the bathroom was worse. The smell was overpowering. I was fortunate to get a few good nights rest after long days. This hotel was the only one available when I booked my last minute trip. If I had to do it again I would look somewhere further away if I need to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r491006450-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>491006450</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Don't do it.</t>
+  </si>
+  <si>
+    <t>I had a late check in which I called and confirmed with call center and hotel. I arrive and no one there. Door said to call I called the lady said someone would be there in ten minutes. Short story, 1 hour later nobody showed, nobody would answer phone. Called corporate office. They tried and nothing. So with my pissed off taxi driver and my new $80 EXTRA taxi bill I went down the street. I did stay the day after and they did comp me the night. But no pots, pans, plates, cups, nothing in the kitchen. Why rent a hotel room with a kitchen?MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>I had a late check in which I called and confirmed with call center and hotel. I arrive and no one there. Door said to call I called the lady said someone would be there in ten minutes. Short story, 1 hour later nobody showed, nobody would answer phone. Called corporate office. They tried and nothing. So with my pissed off taxi driver and my new $80 EXTRA taxi bill I went down the street. I did stay the day after and they did comp me the night. But no pots, pans, plates, cups, nothing in the kitchen. Why rent a hotel room with a kitchen?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r481632237-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>481632237</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Got To bring my DVD. Felt lavish awesome.</t>
+  </si>
+  <si>
+    <t>Put forth a movie night. several DVD explored and re-watched. Felt good to have some peace and quiet showers felt great and could use one right no but very expensive keep it lavish until next time. Cheaper be nicer.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Put forth a movie night. several DVD explored and re-watched. Felt good to have some peace and quiet showers felt great and could use one right no but very expensive keep it lavish until next time. Cheaper be nicer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r481315943-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>481315943</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>They had everything I needed. T from the front desk was extremely helpful in getting me situated and getting me things i needed for my room. She also checked me in early :) Would absolutely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded May 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>They had everything I needed. T from the front desk was extremely helpful in getting me situated and getting me things i needed for my room. She also checked me in early :) Would absolutely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r477598225-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>477598225</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Bad visit</t>
+  </si>
+  <si>
+    <t>Checked into the room and wanted to order a pizza. The room did not have any directories to local resturants. I figured I will call the front desk for a number, and found the room had no paper or pens.After calling for the food we started to notice the room wasn't the cleanest. The microwave and refrigerator both needed cleaned. The tub had hair and a spider in it, and the floor hadn't been properly vacummed, so we couldn't let our son crawl on it. That may have been a blessing in disguise, as he is pulling himself up on furniture, and could have swallowed one of the half dozen nuts and screws left on the edge of the dresser.When we checked out the next morning the manager stated someone checked after the housekeepers cleaned the rooms to make sure they were cleaned. She didn't even apologize for everything that had occured. All she said was she would make sure it didn't happen to anyone else. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2017</t>
+  </si>
+  <si>
+    <t>Checked into the room and wanted to order a pizza. The room did not have any directories to local resturants. I figured I will call the front desk for a number, and found the room had no paper or pens.After calling for the food we started to notice the room wasn't the cleanest. The microwave and refrigerator both needed cleaned. The tub had hair and a spider in it, and the floor hadn't been properly vacummed, so we couldn't let our son crawl on it. That may have been a blessing in disguise, as he is pulling himself up on furniture, and could have swallowed one of the half dozen nuts and screws left on the edge of the dresser.When we checked out the next morning the manager stated someone checked after the housekeepers cleaned the rooms to make sure they were cleaned. She didn't even apologize for everything that had occured. All she said was she would make sure it didn't happen to anyone else. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r457384534-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>457384534</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>Extended stay america</t>
+  </si>
+  <si>
+    <t>Extremely helpful and friendly staff. Would definitely return for another stay, extended or otherwise. What started as a last minute room for the night l, turned into a 3 day weekend because i was do comfortabke with the room anf service. 10/10MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded February 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2017</t>
+  </si>
+  <si>
+    <t>Extremely helpful and friendly staff. Would definitely return for another stay, extended or otherwise. What started as a last minute room for the night l, turned into a 3 day weekend because i was do comfortabke with the room anf service. 10/10More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r454060071-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>454060071</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>Family visit</t>
+  </si>
+  <si>
+    <t>We had a great time and a great experience at this hotel, the staff were very helpful and polite and had everything we needed like extra pillows, extra towels, and dishes. We were treated with respect and really liked the no smoking on property due to our daughter having asthma.  The lady at the desk T was very polite and helped with everything we needed. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>We had a great time and a great experience at this hotel, the staff were very helpful and polite and had everything we needed like extra pillows, extra towels, and dishes. We were treated with respect and really liked the no smoking on property due to our daughter having asthma.  The lady at the desk T was very polite and helped with everything we needed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r454030068-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>454030068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family stacation </t>
+  </si>
+  <si>
+    <t>Two night stay in town . Continental breakfast is good and the rooms are very clean . The staff was very attentive to all of our needs . As far as the area goes  its a great part of town . Lots of shopping MoreShow less</t>
+  </si>
+  <si>
+    <t>Two night stay in town . Continental breakfast is good and the rooms are very clean . The staff was very attentive to all of our needs . As far as the area goes  its a great part of town . Lots of shopping More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r432664511-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>432664511</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Poor customer relations</t>
+  </si>
+  <si>
+    <t>needed to stay for 3 nights due to water shutoff in our nearby high-rise condo. Our water was turned on after 2 nights, but when we went to check out at 1 pm we were denied the cancellation of the last night. We offered to pay a penalty because our checkout was late (after 11 am), but were refused. This hotel has very poor customer relations.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded October 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2016</t>
+  </si>
+  <si>
+    <t>needed to stay for 3 nights due to water shutoff in our nearby high-rise condo. Our water was turned on after 2 nights, but when we went to check out at 1 pm we were denied the cancellation of the last night. We offered to pay a penalty because our checkout was late (after 11 am), but were refused. This hotel has very poor customer relations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r430921854-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>430921854</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Best for a Shorter Stay</t>
+  </si>
+  <si>
+    <t>I chose this hotel because of its location related to a wedding I was attending. I liked the idea of the kitchen and dishes available, the free breakfast and the price.  
+The room was clean, but did smell faintly of smoke.  (Bring your own Glade Plug-in and you'll never notice it again.)  There was one set of towels (which was fine for one person), but for a five night stay it would have been nice to have had them changed once.  (I did go to the front desk to ask for more, but there was never anyone at the desk.)  
+The bed was comfortable enough, but there was no blanket.  In Colorado in the fall/winter, I think a blanket should be an option.  
+The place was close to my destination; it was cheaper than some of the other options and wifi had a kitchen.  Those were the best parts.
+The worst parts are these:
+The closet had no hangers.  NO HANGERS.  These aren't something most people fly with, so I had to walk to the local Target to buy some to hang up my clothes.  
+The kitchen equipment was available for an extra charge.  This was never explained to me - not that I needed a toaster or coffee maker, but there wasn't even a plastic cup to drink water from.  
+The hotel is next to a dispensary and there is a hole in the fence between those two properties....I chose this hotel because of its location related to a wedding I was attending. I liked the idea of the kitchen and dishes available, the free breakfast and the price.  The room was clean, but did smell faintly of smoke.  (Bring your own Glade Plug-in and you'll never notice it again.)  There was one set of towels (which was fine for one person), but for a five night stay it would have been nice to have had them changed once.  (I did go to the front desk to ask for more, but there was never anyone at the desk.)  The bed was comfortable enough, but there was no blanket.  In Colorado in the fall/winter, I think a blanket should be an option.  The place was close to my destination; it was cheaper than some of the other options and wifi had a kitchen.  Those were the best parts.The worst parts are these:The closet had no hangers.  NO HANGERS.  These aren't something most people fly with, so I had to walk to the local Target to buy some to hang up my clothes.  The kitchen equipment was available for an extra charge.  This was never explained to me - not that I needed a toaster or coffee maker, but there wasn't even a plastic cup to drink water from.  The hotel is next to a dispensary and there is a hole in the fence between those two properties.  At all hours, there were "campers" hanging out in the grass on the hotel side.  I felt very unsafe walking in the parking lot.I felt the hotel advertised one thing and in reality was much worse.  I wish I would have spent the extra $150 to stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded October 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2016</t>
+  </si>
+  <si>
+    <t>I chose this hotel because of its location related to a wedding I was attending. I liked the idea of the kitchen and dishes available, the free breakfast and the price.  
+The room was clean, but did smell faintly of smoke.  (Bring your own Glade Plug-in and you'll never notice it again.)  There was one set of towels (which was fine for one person), but for a five night stay it would have been nice to have had them changed once.  (I did go to the front desk to ask for more, but there was never anyone at the desk.)  
+The bed was comfortable enough, but there was no blanket.  In Colorado in the fall/winter, I think a blanket should be an option.  
+The place was close to my destination; it was cheaper than some of the other options and wifi had a kitchen.  Those were the best parts.
+The worst parts are these:
+The closet had no hangers.  NO HANGERS.  These aren't something most people fly with, so I had to walk to the local Target to buy some to hang up my clothes.  
+The kitchen equipment was available for an extra charge.  This was never explained to me - not that I needed a toaster or coffee maker, but there wasn't even a plastic cup to drink water from.  
+The hotel is next to a dispensary and there is a hole in the fence between those two properties....I chose this hotel because of its location related to a wedding I was attending. I liked the idea of the kitchen and dishes available, the free breakfast and the price.  The room was clean, but did smell faintly of smoke.  (Bring your own Glade Plug-in and you'll never notice it again.)  There was one set of towels (which was fine for one person), but for a five night stay it would have been nice to have had them changed once.  (I did go to the front desk to ask for more, but there was never anyone at the desk.)  The bed was comfortable enough, but there was no blanket.  In Colorado in the fall/winter, I think a blanket should be an option.  The place was close to my destination; it was cheaper than some of the other options and wifi had a kitchen.  Those were the best parts.The worst parts are these:The closet had no hangers.  NO HANGERS.  These aren't something most people fly with, so I had to walk to the local Target to buy some to hang up my clothes.  The kitchen equipment was available for an extra charge.  This was never explained to me - not that I needed a toaster or coffee maker, but there wasn't even a plastic cup to drink water from.  The hotel is next to a dispensary and there is a hole in the fence between those two properties.  At all hours, there were "campers" hanging out in the grass on the hotel side.  I felt very unsafe walking in the parking lot.I felt the hotel advertised one thing and in reality was much worse.  I wish I would have spent the extra $150 to stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r429857414-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>429857414</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>great place!</t>
+  </si>
+  <si>
+    <t>stayed here for work, coming from crosslands on kipling this place was great! the room was clean and the bed was comfortable. bathroom was clean and kitchen area was also. front desk had utensils if you needed it and fresh towels. the grab and go breakfast was also nice. overall, i would come back to this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>stayed here for work, coming from crosslands on kipling this place was great! the room was clean and the bed was comfortable. bathroom was clean and kitchen area was also. front desk had utensils if you needed it and fresh towels. the grab and go breakfast was also nice. overall, i would come back to this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r419503161-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>419503161</t>
+  </si>
+  <si>
+    <t>09/17/2016</t>
+  </si>
+  <si>
+    <t>On a scale of 1 to 10 I'd give this a negative!</t>
+  </si>
+  <si>
+    <t>So don't know where to start... I will not ever repeat this experience nor any extended stay as this was my first (and last) expierence with ESA.  After booking online and a confirmation number, the day of my check in later that day after my online boking around 8 p.m. at night (i was checking in about 9.30 p.m. that day). I get a call from (Amber) telling me that the hotel is overbooked and I should find somewhere else to stay. She didnt give me even a chance to soak it in, she took me to the reservation line. I call again, wanting to make sure that i will not be charged for a "no show" asking about other options in cherry creek that they could help me with. A guy answers the phone, and confirms that my reservation is valid and active and i need to go soon and grab the room!!
+I go their at around 9.30 p.m. not knowing whats going on, just for the fact that i wanted a proof that i wont be charged a no show. I Meet Amber, tell her the conversation i had with the gentelmen over the phone, that he comfirmed there is a room.she calls him an ediot, complains about the system and then gives me a room!!
+Now, meet Terry another fire cracker with the front desk, now if you ever travel to a third world country and...So don't know where to start... I will not ever repeat this experience nor any extended stay as this was my first (and last) expierence with ESA.  After booking online and a confirmation number, the day of my check in later that day after my online boking around 8 p.m. at night (i was checking in about 9.30 p.m. that day). I get a call from (Amber) telling me that the hotel is overbooked and I should find somewhere else to stay. She didnt give me even a chance to soak it in, she took me to the reservation line. I call again, wanting to make sure that i will not be charged for a "no show" asking about other options in cherry creek that they could help me with. A guy answers the phone, and confirms that my reservation is valid and active and i need to go soon and grab the room!!I go their at around 9.30 p.m. not knowing whats going on, just for the fact that i wanted a proof that i wont be charged a no show. I Meet Amber, tell her the conversation i had with the gentelmen over the phone, that he comfirmed there is a room.she calls him an ediot, complains about the system and then gives me a room!!Now, meet Terry another fire cracker with the front desk, now if you ever travel to a third world country and think there customer service sucks, check out Terry and her customer service. Literally she's willing to slash and shout at you if you ask for anything!Apart from the two front desk experiences; here are some facts about the room itself:1. The room smells so nasty, smells like its rented for homeless people in the morning and for you at night. Cant describe the smell.2. No iron, remote control, soap, shampoo,,,,etc. was found in the room. I had to beg for those to get them. Even had to programme the generic remote myself to watch some ANALOG channels no digital.3. Rooms are cleaned once a week only!!! Yes if you stay less than a week then your room wont get cleaned.4. If you ask for anything, youll go and get it yourself, evening shifts have only one employee.5. Grab and go breakfast,,,is muffins and gronala bars...thats it.6. You should get utenciles and other kitchen equipment in your room, but my room had non.Now, most exciting part was trying to get back a 15% that i was promised for signing up with rewards points. Its been 48 hours and Terry literally hung up on me because i asked for an email for that discount...go figure! Received no discout from there system up till now!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded September 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2016</t>
+  </si>
+  <si>
+    <t>So don't know where to start... I will not ever repeat this experience nor any extended stay as this was my first (and last) expierence with ESA.  After booking online and a confirmation number, the day of my check in later that day after my online boking around 8 p.m. at night (i was checking in about 9.30 p.m. that day). I get a call from (Amber) telling me that the hotel is overbooked and I should find somewhere else to stay. She didnt give me even a chance to soak it in, she took me to the reservation line. I call again, wanting to make sure that i will not be charged for a "no show" asking about other options in cherry creek that they could help me with. A guy answers the phone, and confirms that my reservation is valid and active and i need to go soon and grab the room!!
+I go their at around 9.30 p.m. not knowing whats going on, just for the fact that i wanted a proof that i wont be charged a no show. I Meet Amber, tell her the conversation i had with the gentelmen over the phone, that he comfirmed there is a room.she calls him an ediot, complains about the system and then gives me a room!!
+Now, meet Terry another fire cracker with the front desk, now if you ever travel to a third world country and...So don't know where to start... I will not ever repeat this experience nor any extended stay as this was my first (and last) expierence with ESA.  After booking online and a confirmation number, the day of my check in later that day after my online boking around 8 p.m. at night (i was checking in about 9.30 p.m. that day). I get a call from (Amber) telling me that the hotel is overbooked and I should find somewhere else to stay. She didnt give me even a chance to soak it in, she took me to the reservation line. I call again, wanting to make sure that i will not be charged for a "no show" asking about other options in cherry creek that they could help me with. A guy answers the phone, and confirms that my reservation is valid and active and i need to go soon and grab the room!!I go their at around 9.30 p.m. not knowing whats going on, just for the fact that i wanted a proof that i wont be charged a no show. I Meet Amber, tell her the conversation i had with the gentelmen over the phone, that he comfirmed there is a room.she calls him an ediot, complains about the system and then gives me a room!!Now, meet Terry another fire cracker with the front desk, now if you ever travel to a third world country and think there customer service sucks, check out Terry and her customer service. Literally she's willing to slash and shout at you if you ask for anything!Apart from the two front desk experiences; here are some facts about the room itself:1. The room smells so nasty, smells like its rented for homeless people in the morning and for you at night. Cant describe the smell.2. No iron, remote control, soap, shampoo,,,,etc. was found in the room. I had to beg for those to get them. Even had to programme the generic remote myself to watch some ANALOG channels no digital.3. Rooms are cleaned once a week only!!! Yes if you stay less than a week then your room wont get cleaned.4. If you ask for anything, youll go and get it yourself, evening shifts have only one employee.5. Grab and go breakfast,,,is muffins and gronala bars...thats it.6. You should get utenciles and other kitchen equipment in your room, but my room had non.Now, most exciting part was trying to get back a 15% that i was promised for signing up with rewards points. Its been 48 hours and Terry literally hung up on me because i asked for an email for that discount...go figure! Received no discout from there system up till now!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r411222251-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>411222251</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>Convenient Location</t>
+  </si>
+  <si>
+    <t>It is hard to find some value in Denver hotels, but this is with its kitchen amenities, laundry, and location that makes central Denver accessible.  Pros: location, kitchen, cleanCons: 3 story on one side, no elevators.  Parking is dreadful if the hotel is fully occupied. Lots of construction work close by. If you want any kitchen items to cook with, etc.... you pay extra for packages of utensils (bring your own if extended stay).No oven. No coffee machine.  Breakfast is coffee and packaged stuff.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded August 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2016</t>
+  </si>
+  <si>
+    <t>It is hard to find some value in Denver hotels, but this is with its kitchen amenities, laundry, and location that makes central Denver accessible.  Pros: location, kitchen, cleanCons: 3 story on one side, no elevators.  Parking is dreadful if the hotel is fully occupied. Lots of construction work close by. If you want any kitchen items to cook with, etc.... you pay extra for packages of utensils (bring your own if extended stay).No oven. No coffee machine.  Breakfast is coffee and packaged stuff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r395429573-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>395429573</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!!!!!</t>
+  </si>
+  <si>
+    <t>I would sleep on the streets before I stayed here. We made a reservation through booking.com. After reading the horrible reviews we cancelled within the allowedd time frame. However, we were charged for BOTH nights anyway!!!!! What kind of business is this??? You can't charge for service you didn't provide!!!! Even their own cancellation policy says that if you dont cancel and don't show up, the MOST they can charge you for is one night!!! I contacted them on July 5th to find out what the issue was and to get it resolved. I called at 345pm. The man who answered the phone had NO customer service skills at all, was EXTREMELY and unhelpful!!! Here told me mgmt was gone for the day.. At 345!!!! No wonder this place is a disaster. I contacted booking.com. and they confirmed that the cancellation was done within the allotted time frame. They've made numerous attempts to contact the general manager, they've stopped answering their phone!! How childish is that?? They've not responded to any requests for a refund. Booking.com is now going to proceed legally. Thank goodness for their advocacy or we would be screwed. Those is NOT how you run a hospitality business!!! Do not under any circumstances stay here!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>I would sleep on the streets before I stayed here. We made a reservation through booking.com. After reading the horrible reviews we cancelled within the allowedd time frame. However, we were charged for BOTH nights anyway!!!!! What kind of business is this??? You can't charge for service you didn't provide!!!! Even their own cancellation policy says that if you dont cancel and don't show up, the MOST they can charge you for is one night!!! I contacted them on July 5th to find out what the issue was and to get it resolved. I called at 345pm. The man who answered the phone had NO customer service skills at all, was EXTREMELY and unhelpful!!! Here told me mgmt was gone for the day.. At 345!!!! No wonder this place is a disaster. I contacted booking.com. and they confirmed that the cancellation was done within the allotted time frame. They've made numerous attempts to contact the general manager, they've stopped answering their phone!! How childish is that?? They've not responded to any requests for a refund. Booking.com is now going to proceed legally. Thank goodness for their advocacy or we would be screwed. Those is NOT how you run a hospitality business!!! Do not under any circumstances stay here!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r384466013-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>384466013</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>Room was nice and clean and check in was a breeze!! T was amazing,, overall wonderful hotel.</t>
+  </si>
+  <si>
+    <t>Room was nice and clean and check in was a breeze!! T was amazing,, overall wonderful hotel. It's in a perfect location. Real close to food, gas, dispensaries, grocery stores pretty much everything you could need. Bed was big and comfy. Also has nice tcpv and a kitchenette.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Room was nice and clean and check in was a breeze!! T was amazing,, overall wonderful hotel. It's in a perfect location. Real close to food, gas, dispensaries, grocery stores pretty much everything you could need. Bed was big and comfy. Also has nice tcpv and a kitchenette.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r382928786-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>382928786</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>service was great and ms T was wionderful in helping me out .she was very helpful with any questions I had regarding my serounding. like  restaurants movies and dine in. I will return here and I thank for their hospitalityMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>service was great and ms T was wionderful in helping me out .she was very helpful with any questions I had regarding my serounding. like  restaurants movies and dine in. I will return here and I thank for their hospitalityMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r380164409-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>380164409</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel should be condemned </t>
+  </si>
+  <si>
+    <t>Two words - BED BUGS. This place is a nightmare. This is the worst place I have ever stayed, and I've been in a place where I've been moved out of my hotel room due to someone almost being murdered on the same floor. The staff does not know how to communicate. They are constantly out of supplies. You're mocked for asking for toiletries and other essentials that you'd expect a hotel to always have on hand. They do not clean the floors. Spot vacuuming is not going to clean up the sticky residue that gets left on the floor. My room had bed bugs and a guest that stayed in it a week before me actually called my room and told me to beware. I notified the hotel of the issue and it took 3 days to get someone to my room. I wasn't the only room being inspected for bed bugs that day either. I stayed in the room when they looked for bugs and as soon and they lifted up the top mattress there were bugs small and large scattering all over the mattress. It was absolutely disgusting. I had 3 weeks worth of clothes with me (pretty much my entire wardrobe) due to being on the road for work for so long. I was told I would be moved to another room but that they didn't have one available and didn't know when it would become...Two words - BED BUGS. This place is a nightmare. This is the worst place I have ever stayed, and I've been in a place where I've been moved out of my hotel room due to someone almost being murdered on the same floor. The staff does not know how to communicate. They are constantly out of supplies. You're mocked for asking for toiletries and other essentials that you'd expect a hotel to always have on hand. They do not clean the floors. Spot vacuuming is not going to clean up the sticky residue that gets left on the floor. My room had bed bugs and a guest that stayed in it a week before me actually called my room and told me to beware. I notified the hotel of the issue and it took 3 days to get someone to my room. I wasn't the only room being inspected for bed bugs that day either. I stayed in the room when they looked for bugs and as soon and they lifted up the top mattress there were bugs small and large scattering all over the mattress. It was absolutely disgusting. I had 3 weeks worth of clothes with me (pretty much my entire wardrobe) due to being on the road for work for so long. I was told I would be moved to another room but that they didn't have one available and didn't know when it would become available. I had just gotten off of work that morning from an overnight shift and didn't have time for these people to figure out how to fix a problem that would inevitably repeat itself. I moved out of the hotel that morning. I will never stay at this location again and suggest that you all consider to stay away. It is not worth putting you or your family at risk to bed bug bites. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Two words - BED BUGS. This place is a nightmare. This is the worst place I have ever stayed, and I've been in a place where I've been moved out of my hotel room due to someone almost being murdered on the same floor. The staff does not know how to communicate. They are constantly out of supplies. You're mocked for asking for toiletries and other essentials that you'd expect a hotel to always have on hand. They do not clean the floors. Spot vacuuming is not going to clean up the sticky residue that gets left on the floor. My room had bed bugs and a guest that stayed in it a week before me actually called my room and told me to beware. I notified the hotel of the issue and it took 3 days to get someone to my room. I wasn't the only room being inspected for bed bugs that day either. I stayed in the room when they looked for bugs and as soon and they lifted up the top mattress there were bugs small and large scattering all over the mattress. It was absolutely disgusting. I had 3 weeks worth of clothes with me (pretty much my entire wardrobe) due to being on the road for work for so long. I was told I would be moved to another room but that they didn't have one available and didn't know when it would become...Two words - BED BUGS. This place is a nightmare. This is the worst place I have ever stayed, and I've been in a place where I've been moved out of my hotel room due to someone almost being murdered on the same floor. The staff does not know how to communicate. They are constantly out of supplies. You're mocked for asking for toiletries and other essentials that you'd expect a hotel to always have on hand. They do not clean the floors. Spot vacuuming is not going to clean up the sticky residue that gets left on the floor. My room had bed bugs and a guest that stayed in it a week before me actually called my room and told me to beware. I notified the hotel of the issue and it took 3 days to get someone to my room. I wasn't the only room being inspected for bed bugs that day either. I stayed in the room when they looked for bugs and as soon and they lifted up the top mattress there were bugs small and large scattering all over the mattress. It was absolutely disgusting. I had 3 weeks worth of clothes with me (pretty much my entire wardrobe) due to being on the road for work for so long. I was told I would be moved to another room but that they didn't have one available and didn't know when it would become available. I had just gotten off of work that morning from an overnight shift and didn't have time for these people to figure out how to fix a problem that would inevitably repeat itself. I moved out of the hotel that morning. I will never stay at this location again and suggest that you all consider to stay away. It is not worth putting you or your family at risk to bed bug bites. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r370293387-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>370293387</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>Professionalism in hotels</t>
+  </si>
+  <si>
+    <t>During my Wife and I stay @ Extended Stay America in Cherry creek,  it certainly has been a PLEASANT experience.  Due to,  in part,  the General Manager by the name of Teri.  She is experienced,  supportive,  and extremely professional.With most and all establishments near &amp; far,  they ALL could learn how to be as effective as Manager Teri.  This establishment is CLEAN,  staff is professional and informative and last but least....  The rates are affordable and competitive.Home away from HOME!  No one can beat that or this establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded May 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2016</t>
+  </si>
+  <si>
+    <t>During my Wife and I stay @ Extended Stay America in Cherry creek,  it certainly has been a PLEASANT experience.  Due to,  in part,  the General Manager by the name of Teri.  She is experienced,  supportive,  and extremely professional.With most and all establishments near &amp; far,  they ALL could learn how to be as effective as Manager Teri.  This establishment is CLEAN,  staff is professional and informative and last but least....  The rates are affordable and competitive.Home away from HOME!  No one can beat that or this establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r367039357-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>367039357</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Dirty!</t>
+  </si>
+  <si>
+    <t>I stayed here about 2.5 months. Never again! The room smelled. Everything is dirty there. They never have clean towels when you ask the staff get rude. They never clean the room. Even the manager is dirty. Her fingernails are really long and stained with dirt. She is also very rude and condescending. I can't believe I stayed there as long as I did but didn't have anywhere else to go at the time I was there on a temporary assignment for work. This place was extremely disappointing:-(The worst part... Now all of my stuff smells like that awful place. Ugh!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded May 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here about 2.5 months. Never again! The room smelled. Everything is dirty there. They never have clean towels when you ask the staff get rude. They never clean the room. Even the manager is dirty. Her fingernails are really long and stained with dirt. She is also very rude and condescending. I can't believe I stayed there as long as I did but didn't have anywhere else to go at the time I was there on a temporary assignment for work. This place was extremely disappointing:-(The worst part... Now all of my stuff smells like that awful place. Ugh!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r346280967-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>346280967</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Very helpful staff!</t>
+  </si>
+  <si>
+    <t>The staff was very polite and ready to help with anything you need. Room was clean. The only hang up I guess was that they don't provide breakfast. It's something called 'grab n go' and it's only good for coffee. Other than that a very satisfying stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded February 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2016</t>
+  </si>
+  <si>
+    <t>The staff was very polite and ready to help with anything you need. Room was clean. The only hang up I guess was that they don't provide breakfast. It's something called 'grab n go' and it's only good for coffee. Other than that a very satisfying stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r341060187-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>341060187</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>wasnt great when I visited</t>
+  </si>
+  <si>
+    <t>Ok firstly I visited quite a while ago to this location, however I am sure some of it has not changed.  For example they were pet friendly and my room stank like a dog.  I did not noticed because when I first came into the room, it smelled like air freshner.  It was not until I was int the room for awhile or returned to the room that I noticed the odor. They showed me at least 1 other room they had available, but I noticed the same smell when I opened the door of air freshner &amp; I was worried it would smell like a dog too.  The nice thing about this hotel is that you can cook there and they provide everything you need for that.  There was major construction in the parking lot when I was there (03/14) but still I think they allow dogs and the odor for me made it such that now I refuse to stay in any hotel which allows animals.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded January 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2016</t>
+  </si>
+  <si>
+    <t>Ok firstly I visited quite a while ago to this location, however I am sure some of it has not changed.  For example they were pet friendly and my room stank like a dog.  I did not noticed because when I first came into the room, it smelled like air freshner.  It was not until I was int the room for awhile or returned to the room that I noticed the odor. They showed me at least 1 other room they had available, but I noticed the same smell when I opened the door of air freshner &amp; I was worried it would smell like a dog too.  The nice thing about this hotel is that you can cook there and they provide everything you need for that.  There was major construction in the parking lot when I was there (03/14) but still I think they allow dogs and the odor for me made it such that now I refuse to stay in any hotel which allows animals.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r332100275-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>332100275</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>HORRIBLE PLACE</t>
+  </si>
+  <si>
+    <t>I booked this hotel through Hotwire which said 2.5 stars and I wouldn't even rate this 1 star !! First they put me and my friend in a room that was not cleaned and was like someone was just in there . Tv was still on bed was a mess and thrown together .. Food on table/floor - tables not wiped down and worst of all Blood stains on comforter it was absolutely discusting so after taking pictures and showing front desk they put us In another room and didn't even say sorry . We go to the other room and there was creepy people outside our room and guys trying to get in . We flew out of there and called management to refund money they won't the manager hung up several times and would not provide a name! I'm going to the health department about this !!! P.s carpet was discusting ! Wouldn't even let my dog walk on carpetMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>I booked this hotel through Hotwire which said 2.5 stars and I wouldn't even rate this 1 star !! First they put me and my friend in a room that was not cleaned and was like someone was just in there . Tv was still on bed was a mess and thrown together .. Food on table/floor - tables not wiped down and worst of all Blood stains on comforter it was absolutely discusting so after taking pictures and showing front desk they put us In another room and didn't even say sorry . We go to the other room and there was creepy people outside our room and guys trying to get in . We flew out of there and called management to refund money they won't the manager hung up several times and would not provide a name! I'm going to the health department about this !!! P.s carpet was discusting ! Wouldn't even let my dog walk on carpetMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r321468055-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>321468055</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Lack of Office help</t>
+  </si>
+  <si>
+    <t>Have been two weeks  first week manager called wanting a 5 rating told him I will wait later in the week l get a banging on my door at 7 pm I ask who it is the staff said they need to come into my room ask they say I have been smoking in my room ( I have never smoked) then today a dog next to me was barking for an hour I called was told they couldn't do anything about it some one put a note on there door I got blamed for that BUT. My heater hasn't worked since I got here no one has been here to fix it  the office is glad to lay blame on me for things I haven't done  so wouldn't recommend the place to anyone who doesn't want to blamed for things and no service of room MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Have been two weeks  first week manager called wanting a 5 rating told him I will wait later in the week l get a banging on my door at 7 pm I ask who it is the staff said they need to come into my room ask they say I have been smoking in my room ( I have never smoked) then today a dog next to me was barking for an hour I called was told they couldn't do anything about it some one put a note on there door I got blamed for that BUT. My heater hasn't worked since I got here no one has been here to fix it  the office is glad to lay blame on me for things I haven't done  so wouldn't recommend the place to anyone who doesn't want to blamed for things and no service of room More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r310584563-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>310584563</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Convenient, but needs updating</t>
+  </si>
+  <si>
+    <t>This property is near some very well-to-do areas in suburban Denver, but don't expect deluxe anything. The room/bathroom/kitchenette and very ample closet were serviceable, but in need of updating. The general property could have been kept cleaner and more attractive if the staff would pick up trash and not leave rags, etc., on the outdoor stairwells.There was more than a little confusion at the front desk about the room rate I had agreed to (online). And then they charged it to the card I asked them NOT to put it on.Would I stay here again? Only if there was nothing else available in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>This property is near some very well-to-do areas in suburban Denver, but don't expect deluxe anything. The room/bathroom/kitchenette and very ample closet were serviceable, but in need of updating. The general property could have been kept cleaner and more attractive if the staff would pick up trash and not leave rags, etc., on the outdoor stairwells.There was more than a little confusion at the front desk about the room rate I had agreed to (online). And then they charged it to the card I asked them NOT to put it on.Would I stay here again? Only if there was nothing else available in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r306017776-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>306017776</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Beautiful location - Wonderful Staff</t>
+  </si>
+  <si>
+    <t>This is hands down the best Extended Stay that I have ever stayed in and I've stayed in many.  The staff was wonderful.  The room was modern, very clean, and extremely roomy.  I highly recommend this Extended Stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>This is hands down the best Extended Stay that I have ever stayed in and I've stayed in many.  The staff was wonderful.  The room was modern, very clean, and extremely roomy.  I highly recommend this Extended Stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r305288099-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>305288099</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Just. Don't. Do. It.</t>
+  </si>
+  <si>
+    <t>We had a terrible experience. First off, I always see one star resorts and I usually find the good because I know people complain just to complain. I am a 4-5 start giver... This place would get 0 stars if that was an option. I made my purchase online, got there at 10:30p.m. and then they told me the room wasn't available. They gave me a different room with 1 bed and a pull out sofa (was supposed to be 2 beds). Went up to the room and opened the door to feathers from a pillow all over the floor! Bed was not made and there was a dirty cup on the table. Bathroom had used towels bundled up and what appeared to be blood stains on the side of the door. We thought a murder took place. I went to dial front desk and their phone didn't have a dial tone. There was also red 'blood' spots leading into the entry way of the motel door. We got out of their as fast as we could. I would never stay with this company again :/MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded September 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2016</t>
+  </si>
+  <si>
+    <t>We had a terrible experience. First off, I always see one star resorts and I usually find the good because I know people complain just to complain. I am a 4-5 start giver... This place would get 0 stars if that was an option. I made my purchase online, got there at 10:30p.m. and then they told me the room wasn't available. They gave me a different room with 1 bed and a pull out sofa (was supposed to be 2 beds). Went up to the room and opened the door to feathers from a pillow all over the floor! Bed was not made and there was a dirty cup on the table. Bathroom had used towels bundled up and what appeared to be blood stains on the side of the door. We thought a murder took place. I went to dial front desk and their phone didn't have a dial tone. There was also red 'blood' spots leading into the entry way of the motel door. We got out of their as fast as we could. I would never stay with this company again :/More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r298135519-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>298135519</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Stay away!!!</t>
+  </si>
+  <si>
+    <t>We were on a vacation with 15 people.  We reserved four rooms.  Two of the four weren't even cleaned when we checked in.  Not even one of the rooms was the room type we reserved. The rooms were not even remotely close together even though I requested that months before and was promised that it would be fine.  There was only one woman managing the entire property when we checked in (Jane).  Jane was the only positive part of our stay as she did everything possible to make the best of a horrible situation.  The manager, Angela was AWOL and left poor Jane to deal with so many complaining customers.  I contacted Angela immediately (on a Friday) but didn't hear from her until the following Tuesday since I threatened to call her boss if she didn't respond.  The bathrooms were dirty.  The blankets were gross and looked unwashed.  The carpet in one of the rooms looked like it had a blood stain and was a scene from a CSI episode.  The kitchens had NOTHING in them minus a 6 inch dish towel.  Three of our four refrigerators were broken.  The people staying on the property were a bit scary and we felt unsafe.  There were cigarette butts all over the ground even though the place was non-smoking.  There was a used condom in the parking lot.  I could go on and on but I think I made my point.  DO...We were on a vacation with 15 people.  We reserved four rooms.  Two of the four weren't even cleaned when we checked in.  Not even one of the rooms was the room type we reserved. The rooms were not even remotely close together even though I requested that months before and was promised that it would be fine.  There was only one woman managing the entire property when we checked in (Jane).  Jane was the only positive part of our stay as she did everything possible to make the best of a horrible situation.  The manager, Angela was AWOL and left poor Jane to deal with so many complaining customers.  I contacted Angela immediately (on a Friday) but didn't hear from her until the following Tuesday since I threatened to call her boss if she didn't respond.  The bathrooms were dirty.  The blankets were gross and looked unwashed.  The carpet in one of the rooms looked like it had a blood stain and was a scene from a CSI episode.  The kitchens had NOTHING in them minus a 6 inch dish towel.  Three of our four refrigerators were broken.  The people staying on the property were a bit scary and we felt unsafe.  There were cigarette butts all over the ground even though the place was non-smoking.  There was a used condom in the parking lot.  I could go on and on but I think I made my point.  DO NOT STAY IN THIS HORRIBLE PLACE.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were on a vacation with 15 people.  We reserved four rooms.  Two of the four weren't even cleaned when we checked in.  Not even one of the rooms was the room type we reserved. The rooms were not even remotely close together even though I requested that months before and was promised that it would be fine.  There was only one woman managing the entire property when we checked in (Jane).  Jane was the only positive part of our stay as she did everything possible to make the best of a horrible situation.  The manager, Angela was AWOL and left poor Jane to deal with so many complaining customers.  I contacted Angela immediately (on a Friday) but didn't hear from her until the following Tuesday since I threatened to call her boss if she didn't respond.  The bathrooms were dirty.  The blankets were gross and looked unwashed.  The carpet in one of the rooms looked like it had a blood stain and was a scene from a CSI episode.  The kitchens had NOTHING in them minus a 6 inch dish towel.  Three of our four refrigerators were broken.  The people staying on the property were a bit scary and we felt unsafe.  There were cigarette butts all over the ground even though the place was non-smoking.  There was a used condom in the parking lot.  I could go on and on but I think I made my point.  DO...We were on a vacation with 15 people.  We reserved four rooms.  Two of the four weren't even cleaned when we checked in.  Not even one of the rooms was the room type we reserved. The rooms were not even remotely close together even though I requested that months before and was promised that it would be fine.  There was only one woman managing the entire property when we checked in (Jane).  Jane was the only positive part of our stay as she did everything possible to make the best of a horrible situation.  The manager, Angela was AWOL and left poor Jane to deal with so many complaining customers.  I contacted Angela immediately (on a Friday) but didn't hear from her until the following Tuesday since I threatened to call her boss if she didn't respond.  The bathrooms were dirty.  The blankets were gross and looked unwashed.  The carpet in one of the rooms looked like it had a blood stain and was a scene from a CSI episode.  The kitchens had NOTHING in them minus a 6 inch dish towel.  Three of our four refrigerators were broken.  The people staying on the property were a bit scary and we felt unsafe.  There were cigarette butts all over the ground even though the place was non-smoking.  There was a used condom in the parking lot.  I could go on and on but I think I made my point.  DO NOT STAY IN THIS HORRIBLE PLACE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r294041983-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>294041983</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Barely acceptable in a pinch.</t>
+  </si>
+  <si>
+    <t>Checking in was a challenge as the lady at the front desk immediately started arguing with me.  I called from airport to see if room was available, and they said yes.  I arrived about 40 minutes later and was told there might not be a room.  I mentioned my call, but she said I didn't speak to her, it was the girl sitting outside having a ciggie.Way overpriced, but cheapest in area.  Room was tidy but it's been a while since a deep clean.  A little smelly but tolerable. The A/C unit below the window was loud.  Bathroom was a bit grotty, spotted a few hairs clinging to the tiles.  Bathroom fan exceeded 50db.wifi was free, but extra charge to get enough speed for youtube.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Checking in was a challenge as the lady at the front desk immediately started arguing with me.  I called from airport to see if room was available, and they said yes.  I arrived about 40 minutes later and was told there might not be a room.  I mentioned my call, but she said I didn't speak to her, it was the girl sitting outside having a ciggie.Way overpriced, but cheapest in area.  Room was tidy but it's been a while since a deep clean.  A little smelly but tolerable. The A/C unit below the window was loud.  Bathroom was a bit grotty, spotted a few hairs clinging to the tiles.  Bathroom fan exceeded 50db.wifi was free, but extra charge to get enough speed for youtube.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r288722961-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>288722961</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't do it. </t>
+  </si>
+  <si>
+    <t>Stayed here 2 nights and that's all we could stand. The 2 clerks in the afternoon and evening were either downright rude or didn't want us there. One told us we were not supposed to park our buses there because they take up too much space. It's okay for other people to do it though. I took pictures to prove it. The rooms were smaller than one regular motel room. No plates, silverware, coffeemaker or hairdryer. You had to ask for them. A/C didn't cool the room until 2:00AM and the high during the day was only in the mid 80s. Sign at the desk said smoke free property and if caught you'd be kicked out. Wrong. I saw several smokers. The bath towels felt like sandpaper. Never again will I stay at this chain. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Stayed here 2 nights and that's all we could stand. The 2 clerks in the afternoon and evening were either downright rude or didn't want us there. One told us we were not supposed to park our buses there because they take up too much space. It's okay for other people to do it though. I took pictures to prove it. The rooms were smaller than one regular motel room. No plates, silverware, coffeemaker or hairdryer. You had to ask for them. A/C didn't cool the room until 2:00AM and the high during the day was only in the mid 80s. Sign at the desk said smoke free property and if caught you'd be kicked out. Wrong. I saw several smokers. The bath towels felt like sandpaper. Never again will I stay at this chain. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r282999204-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>282999204</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Do not stay at this hotel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was one of the worst hotel stays, ever. Upon arriving we saw a drug deal go down in front of the hotel which should of been a sign. The hotel clerk was friendly but since I booked through a third party site, they gave me a room on the third floor with no elevator to take my items up. The rooms were dated and had a bad vibe that made me want to leave.  The price was the lowest in Denver but worth paying more to feel safe and get a good experience. Look elsewhere.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r279163195-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>279163195</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Do I have to give it even ONE star?</t>
+  </si>
+  <si>
+    <t>This is my second night here. As another reviewer experienced, I am stuck in this dungeon because of a 3rd party-booked room (in my case, Expedia,) Technically this should be the THIRD night of my stay, but when I arrived very late at night and wanted to do a late check in, the night desk agent was no where to be located, after waiting an hour and a half for him to show. The manager was contacted by corporate guest services when I filed a complaint and while I did notice her juggling 80 different things at once decently well, I'm unsatisfied with the brush off I got to correct my botched check in. Beer cans and trash are small troubles compared to "non-smoking" rooms that you can't breathe in from residual smoke and neighbors who just stand in the doorway to light their cigs. One a week housecleaning is also maddening, especially when the covers are stained and smell like urine.  Truly awful location.I would HIGHLY recommend that you stay at Extended Stay only as the very last resort, after every single other hotel in the Denver area is booked.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded July 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2015</t>
+  </si>
+  <si>
+    <t>This is my second night here. As another reviewer experienced, I am stuck in this dungeon because of a 3rd party-booked room (in my case, Expedia,) Technically this should be the THIRD night of my stay, but when I arrived very late at night and wanted to do a late check in, the night desk agent was no where to be located, after waiting an hour and a half for him to show. The manager was contacted by corporate guest services when I filed a complaint and while I did notice her juggling 80 different things at once decently well, I'm unsatisfied with the brush off I got to correct my botched check in. Beer cans and trash are small troubles compared to "non-smoking" rooms that you can't breathe in from residual smoke and neighbors who just stand in the doorway to light their cigs. One a week housecleaning is also maddening, especially when the covers are stained and smell like urine.  Truly awful location.I would HIGHLY recommend that you stay at Extended Stay only as the very last resort, after every single other hotel in the Denver area is booked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r278377060-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>278377060</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Please don't stay here.</t>
+  </si>
+  <si>
+    <t>Currently sitting in my room. I was stupid and paid in advance via Priceline. Despite this being an 'extended stay', I have no dishes or silverware and "Tara" at the Front Desk is 'too busy' to help me and hung up on me. I have been here less than 2 hours. There is garbage in the stairwell and an empty 12 pack beer box on the walkway. Again, I stupidly used Priceline so I am stuck here with Tara who apparently gets overwhelmed very, very easily and should find a new job that does not require customer service. Priceline said they might be able to negotiate a refund, but would not help me find a new place for the same price so if I check out (on a Saturday evening in Denver), if I am lucky to find a place to stay, I will have to pay more. I am essentially being held hostage at a Priceline/Extended Stay America Hotel. Please avoid both of these companies. I know I will. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Currently sitting in my room. I was stupid and paid in advance via Priceline. Despite this being an 'extended stay', I have no dishes or silverware and "Tara" at the Front Desk is 'too busy' to help me and hung up on me. I have been here less than 2 hours. There is garbage in the stairwell and an empty 12 pack beer box on the walkway. Again, I stupidly used Priceline so I am stuck here with Tara who apparently gets overwhelmed very, very easily and should find a new job that does not require customer service. Priceline said they might be able to negotiate a refund, but would not help me find a new place for the same price so if I check out (on a Saturday evening in Denver), if I am lucky to find a place to stay, I will have to pay more. I am essentially being held hostage at a Priceline/Extended Stay America Hotel. Please avoid both of these companies. I know I will. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r274437697-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>274437697</t>
+  </si>
+  <si>
+    <t>05/25/2015</t>
+  </si>
+  <si>
+    <t>Worst hotel</t>
+  </si>
+  <si>
+    <t>Booked through Priceline probably the reason our stay was the worst. Husband was sick and we where going to the hospital the next morning. room was on the third floor which was not a good start for a disabled 56 year old, front staff did not care. got to the room .No  TV remote. no phone, and no dishes or utensils of any kind. what is the point of the stove and sink, went to front desk for the remote had to wait 20mins as no one on front desk.  I would of had better service in a one star hotel, we have stayed at extended stay before and always enjoyed our stay this hotel is an embarrassment to the extended  stay name.  I was booked for 2 nights but left after the first night,MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Booked through Priceline probably the reason our stay was the worst. Husband was sick and we where going to the hospital the next morning. room was on the third floor which was not a good start for a disabled 56 year old, front staff did not care. got to the room .No  TV remote. no phone, and no dishes or utensils of any kind. what is the point of the stove and sink, went to front desk for the remote had to wait 20mins as no one on front desk.  I would of had better service in a one star hotel, we have stayed at extended stay before and always enjoyed our stay this hotel is an embarrassment to the extended  stay name.  I was booked for 2 nights but left after the first night,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r274411889-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>274411889</t>
+  </si>
+  <si>
+    <t>Noisy non-supplied room</t>
+  </si>
+  <si>
+    <t>Room was small with a small kitchen. Room looked clean but didn't smell clean. Perhaps it had been a smoking room in the past and the carpet hadn't been replaced. The kitchen had a refrig, microwave, semi-functioning sink and two burner cook top. There was a nice recliner and a bar/desk area. Neighboring plumbing noise and road noise throughout our stay. The bathroom appeared to have been recently remodeled. The bed was adequate. The room lacked basics - no hangers, no tissues, no coffee maker, no cups or glasses of any kind. Seemed odd to have a kitchen and absolutely no silverware, cups, plates, pans, etc. so I asked at the front desk. The woman said it was a corporate directive to not provide any basics unless requested. Even Motel 6 gives you tissues and cups and at a much lower price.  Morning breakfast included instant oatmeal, apples, packaged muffins, granola bars, and coffee and tea.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was small with a small kitchen. Room looked clean but didn't smell clean. Perhaps it had been a smoking room in the past and the carpet hadn't been replaced. The kitchen had a refrig, microwave, semi-functioning sink and two burner cook top. There was a nice recliner and a bar/desk area. Neighboring plumbing noise and road noise throughout our stay. The bathroom appeared to have been recently remodeled. The bed was adequate. The room lacked basics - no hangers, no tissues, no coffee maker, no cups or glasses of any kind. Seemed odd to have a kitchen and absolutely no silverware, cups, plates, pans, etc. so I asked at the front desk. The woman said it was a corporate directive to not provide any basics unless requested. Even Motel 6 gives you tissues and cups and at a much lower price.  Morning breakfast included instant oatmeal, apples, packaged muffins, granola bars, and coffee and tea.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r273322904-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>273322904</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bare bones </t>
+  </si>
+  <si>
+    <t>This hotel would have been rated much higher if not for the huge piles of trash under the stairs and even after it was cleaned, it was not clean.  Also, the lower stairs are cracked and crumbling to pieces.  The beds are really too small fortwo people. This place has potential of being much nicer. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>This hotel would have been rated much higher if not for the huge piles of trash under the stairs and even after it was cleaned, it was not clean.  Also, the lower stairs are cracked and crumbling to pieces.  The beds are really too small fortwo people. This place has potential of being much nicer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r259771057-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>259771057</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Confirmed Reservation Problems</t>
+  </si>
+  <si>
+    <t>I made an advanced reservation at the Extended Stay America Denver Cherry Creek for the night of March 11, studio suite king bed, $90.24 plus tax, and received confirmation number 121417625.  We arrived about 7 PM and were given room 148, which was a queen bed, not king.  The advanced purchase rate for the queen would have been about $80.74, $9.50 less.  The check in clerk didn’t let me know that the room class and rate had changed.  When I returned to the office to ask for light bulbs (two were missing), the clerk said she’d adjust it, but a room transfer to a king unit wasn’t possible.  I had kept my confirmation email, and the rate was adjusted in the morning.  I was told later that room types are routinely reassigned, and sometimes even confirmed reservations won't be honored due to over booking.  If I hadn’t kept my hardcopy confirmation, I’m not sure I could have adjusted the rate.  I’m not confident that a confirmed reservation would be guaranteed. Extended Stay Cherry Creek is very convenient for us, is very popular, and the most reasonable spot to stay in Cherry Creek.   However, rate and booking problems will affect our future plans.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2015</t>
+  </si>
+  <si>
+    <t>I made an advanced reservation at the Extended Stay America Denver Cherry Creek for the night of March 11, studio suite king bed, $90.24 plus tax, and received confirmation number 121417625.  We arrived about 7 PM and were given room 148, which was a queen bed, not king.  The advanced purchase rate for the queen would have been about $80.74, $9.50 less.  The check in clerk didn’t let me know that the room class and rate had changed.  When I returned to the office to ask for light bulbs (two were missing), the clerk said she’d adjust it, but a room transfer to a king unit wasn’t possible.  I had kept my confirmation email, and the rate was adjusted in the morning.  I was told later that room types are routinely reassigned, and sometimes even confirmed reservations won't be honored due to over booking.  If I hadn’t kept my hardcopy confirmation, I’m not sure I could have adjusted the rate.  I’m not confident that a confirmed reservation would be guaranteed. Extended Stay Cherry Creek is very convenient for us, is very popular, and the most reasonable spot to stay in Cherry Creek.   However, rate and booking problems will affect our future plans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r255321787-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>255321787</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>Above and Beyond Customer Service!</t>
+  </si>
+  <si>
+    <t>Great budget hotel and location! Close to downtown, but not so close that traffic is bad. I left my jacket and keys in the hotel room and the manager Angela and her crew have gone far beyond the call of duty to get my property returned to me safely! In this day and age, I can't express enough how much the honesty and professionalism of Angela and the staff at Extended Stay is appreciated!Breakfast was also great (coffee was delicious and the muffins had REAL BLUEBERRIES)!They let us check in 2 hours early and it was nice and quiet at night, as well.I will, without a doubt, be staying here again the next time I'm in Denver!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great budget hotel and location! Close to downtown, but not so close that traffic is bad. I left my jacket and keys in the hotel room and the manager Angela and her crew have gone far beyond the call of duty to get my property returned to me safely! In this day and age, I can't express enough how much the honesty and professionalism of Angela and the staff at Extended Stay is appreciated!Breakfast was also great (coffee was delicious and the muffins had REAL BLUEBERRIES)!They let us check in 2 hours early and it was nice and quiet at night, as well.I will, without a doubt, be staying here again the next time I'm in Denver!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r252788745-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>252788745</t>
+  </si>
+  <si>
+    <t>02/05/2015</t>
+  </si>
+  <si>
+    <t>Worst Hotel I Have Ever Experienced</t>
+  </si>
+  <si>
+    <t>Not only do the rooms and services have several issues, but the staff is entirely incompetent in fixing any issues you may have.  After staying in the hotel for approximately three months, the weekly “full service” house cleaning was never done correctly.  Several times towels were not replaced, trash was not emptied, floors and counters were not cleaned, kitchen and bathroom were not cleaned, and once they just left linens on the bed without removing old linens and making the bed.  On top of this, some weeks house cleaning didn’t even show up and I was forced to complain and have them return the next day.
+Other issues included the fire alarm going off for around two hours at two in the morning, only one burner on the stove working, the box spring being broken, the toilet running constantly, no one ever being around the front desk at night to help get in to my room when my card key doesn’t work for the third time that week, and a front-desk hotel employee physically threatening me.
+After sending an extensive email about all issues to the hotel manager, Angela, as well as calling her and talking in person several times, I have been apologized to and informed things will change on more occasions than I can count.  Nothing has ever improved and the only thing they offered me for my troubles was to compensate me for five nights at the...Not only do the rooms and services have several issues, but the staff is entirely incompetent in fixing any issues you may have.  After staying in the hotel for approximately three months, the weekly “full service” house cleaning was never done correctly.  Several times towels were not replaced, trash was not emptied, floors and counters were not cleaned, kitchen and bathroom were not cleaned, and once they just left linens on the bed without removing old linens and making the bed.  On top of this, some weeks house cleaning didn’t even show up and I was forced to complain and have them return the next day.Other issues included the fire alarm going off for around two hours at two in the morning, only one burner on the stove working, the box spring being broken, the toilet running constantly, no one ever being around the front desk at night to help get in to my room when my card key doesn’t work for the third time that week, and a front-desk hotel employee physically threatening me.After sending an extensive email about all issues to the hotel manager, Angela, as well as calling her and talking in person several times, I have been apologized to and informed things will change on more occasions than I can count.  Nothing has ever improved and the only thing they offered me for my troubles was to compensate me for five nights at the hotel (over the course of three months).  It is obvious to me that either everyone in this hotel is entirely incompetent in running such an establishment, or perhaps they just don’t take any pride in their jobs or in caring for their guests.  This hotel is an embarrassment to Extended Stay America.  I will never stay at any Extended Stay America hotels again, and I highly suggest that anyone interested avoid this hotel and avoid the many issues I have encountered.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded February 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2015</t>
+  </si>
+  <si>
+    <t>Not only do the rooms and services have several issues, but the staff is entirely incompetent in fixing any issues you may have.  After staying in the hotel for approximately three months, the weekly “full service” house cleaning was never done correctly.  Several times towels were not replaced, trash was not emptied, floors and counters were not cleaned, kitchen and bathroom were not cleaned, and once they just left linens on the bed without removing old linens and making the bed.  On top of this, some weeks house cleaning didn’t even show up and I was forced to complain and have them return the next day.
+Other issues included the fire alarm going off for around two hours at two in the morning, only one burner on the stove working, the box spring being broken, the toilet running constantly, no one ever being around the front desk at night to help get in to my room when my card key doesn’t work for the third time that week, and a front-desk hotel employee physically threatening me.
+After sending an extensive email about all issues to the hotel manager, Angela, as well as calling her and talking in person several times, I have been apologized to and informed things will change on more occasions than I can count.  Nothing has ever improved and the only thing they offered me for my troubles was to compensate me for five nights at the...Not only do the rooms and services have several issues, but the staff is entirely incompetent in fixing any issues you may have.  After staying in the hotel for approximately three months, the weekly “full service” house cleaning was never done correctly.  Several times towels were not replaced, trash was not emptied, floors and counters were not cleaned, kitchen and bathroom were not cleaned, and once they just left linens on the bed without removing old linens and making the bed.  On top of this, some weeks house cleaning didn’t even show up and I was forced to complain and have them return the next day.Other issues included the fire alarm going off for around two hours at two in the morning, only one burner on the stove working, the box spring being broken, the toilet running constantly, no one ever being around the front desk at night to help get in to my room when my card key doesn’t work for the third time that week, and a front-desk hotel employee physically threatening me.After sending an extensive email about all issues to the hotel manager, Angela, as well as calling her and talking in person several times, I have been apologized to and informed things will change on more occasions than I can count.  Nothing has ever improved and the only thing they offered me for my troubles was to compensate me for five nights at the hotel (over the course of three months).  It is obvious to me that either everyone in this hotel is entirely incompetent in running such an establishment, or perhaps they just don’t take any pride in their jobs or in caring for their guests.  This hotel is an embarrassment to Extended Stay America.  I will never stay at any Extended Stay America hotels again, and I highly suggest that anyone interested avoid this hotel and avoid the many issues I have encountered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r249378225-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>249378225</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>lousy rooms</t>
+  </si>
+  <si>
+    <t>first room: door did not close all the way.second room: terrible smell and light did not turn on when entering. I was told it was a non-smoking room, however, even keeping the window open did not help.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r232713736-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>232713736</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>ghetto</t>
+  </si>
+  <si>
+    <t>my husband said this hotel was on the edge of the "ghetto" and saw some things that shouldn't be seen at a hotel including prostitution. also I booked him an extended stay that said it came with a stove and dishes. the stove was there but didn't work and no one would come fix it. also, there were no dishes and again, no one would give him any. since we booked online the hotel couldn't accommodate our complaint so I went to the booking agency and they were able to help us. oh, and he found food behind the chair on the floor...GROSSMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded October 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2014</t>
+  </si>
+  <si>
+    <t>my husband said this hotel was on the edge of the "ghetto" and saw some things that shouldn't be seen at a hotel including prostitution. also I booked him an extended stay that said it came with a stove and dishes. the stove was there but didn't work and no one would come fix it. also, there were no dishes and again, no one would give him any. since we booked online the hotel couldn't accommodate our complaint so I went to the booking agency and they were able to help us. oh, and he found food behind the chair on the floor...GROSSMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r230217322-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>230217322</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>Not bad for what it is</t>
+  </si>
+  <si>
+    <t>Booked a room for one night as part of a Priceline Express Deal when I needed a place to crash in Denver and didn't want to spend a fortune on something fancy.  After I found out where I was staying I started reading reviews here on TA and immediately started questioning my decision to get such a cheap place.  Well, I was very relieved to find that the hotel really wasn't that bad.  I had a first floor unit that was clean, didn't smell bad, and provided a fairly quiet, simple place to sleep a few hours.  Yes, there were some cigarette butts lying around outside, but I saw no evidence that the place was anything like the horrible reviews I had read.  This isn't a fancy hotel and you shouldn't expect it to be pristine.  Yes, some people appear to live here and there is some loitering that might make some people a little worried, but get over it.  Staff at check in was courteous and quick.  I had other plans for breakfast so no comment on the quality of that.  If I had the need to stay in town another night I would not be opposed to staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Booked a room for one night as part of a Priceline Express Deal when I needed a place to crash in Denver and didn't want to spend a fortune on something fancy.  After I found out where I was staying I started reading reviews here on TA and immediately started questioning my decision to get such a cheap place.  Well, I was very relieved to find that the hotel really wasn't that bad.  I had a first floor unit that was clean, didn't smell bad, and provided a fairly quiet, simple place to sleep a few hours.  Yes, there were some cigarette butts lying around outside, but I saw no evidence that the place was anything like the horrible reviews I had read.  This isn't a fancy hotel and you shouldn't expect it to be pristine.  Yes, some people appear to live here and there is some loitering that might make some people a little worried, but get over it.  Staff at check in was courteous and quick.  I had other plans for breakfast so no comment on the quality of that.  If I had the need to stay in town another night I would not be opposed to staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r214294021-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>214294021</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Gross!! Don't Believe the Pictures!!!</t>
+  </si>
+  <si>
+    <t>94 dollars for this room?? No way. When you first drive up to this hotel it does not look bad at all. Until you get to your room. First thing that greeted us was a pile of garbage and cigarette buds on the step of the door. They claimed to give us a smoke free room. The room stunk of cigarettes and it smelled disgusting. The room was dark and dingy. The bathroom was also very gross. The kitchen was basically unusable since the knob of the stove  was off. Also the sheets had yellow stains all over them. I'm not kidding. When we opened the drawers of the kitchen there was gum inside of it. There was also gum stuck behind the bed, there was trash behind the television. The carpet looked old and disgusting. Also if you have tons of suitcases and get the top floor guess what! No Elevator!! We called customer service and they gave us refund thank god.Spend the extra money and go to the Hilton Garden Inn. Way Better!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded July 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2014</t>
+  </si>
+  <si>
+    <t>94 dollars for this room?? No way. When you first drive up to this hotel it does not look bad at all. Until you get to your room. First thing that greeted us was a pile of garbage and cigarette buds on the step of the door. They claimed to give us a smoke free room. The room stunk of cigarettes and it smelled disgusting. The room was dark and dingy. The bathroom was also very gross. The kitchen was basically unusable since the knob of the stove  was off. Also the sheets had yellow stains all over them. I'm not kidding. When we opened the drawers of the kitchen there was gum inside of it. There was also gum stuck behind the bed, there was trash behind the television. The carpet looked old and disgusting. Also if you have tons of suitcases and get the top floor guess what! No Elevator!! We called customer service and they gave us refund thank god.Spend the extra money and go to the Hilton Garden Inn. Way Better!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r213815230-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>213815230</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>What you pay for</t>
+  </si>
+  <si>
+    <t>You get poor service, and poor quality rooms in this place.  I was trying to save some money, and ended up paying for a night I did not even spend in the hotel.  There was trash overflowing on my way up to my room, and the room had some sort of flying insect.  They were nice enough to refund some of my money when I checked out the next morning, but did charge a higher rate. The website pictures do not show an accurate depiction of this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r213636167-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>213636167</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>It is extremely unreliable!</t>
+  </si>
+  <si>
+    <t>July the First, I reserved an orange package at the front desk. At July the third, I went to the hotel to get it, while, my package was totally different from the past, numerous things disappeared, instead some unfamiliar papers. I don't know who did this kind of filthy action, they took away my clothes, cooking appliance,cosmetics, some foods, so on! Even they would like to steal salt and pepper? Annoyingly, no any officer was willing to be accountable to it. I cannot believe the hotel any more.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r205133710-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>205133710</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>Inexpensive, dismal, but has a kitchen</t>
+  </si>
+  <si>
+    <t>We got this hotel as a 2 star in Cherry Creek through Priceline.  It was a very good price, and it's reasonably clean in the room, although they could do something about all the cigarette butts on the stairs.  However, it's dark and dismal and the heater is antiquated, noisy and hard to control.  It is conveniently located, but definitely not in upscale Cherry Creek.  It has a reasonable kitchenette and that's a plus.  But I won't be making a repeat visit.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r202282190-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>202282190</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>Disgusting hotel. Do NOT stay here!</t>
+  </si>
+  <si>
+    <t>My husband and I were getting our hardwood floors refinished and needed to be out of our house for the weekend. The room smelled TERRIBLE when we arrived. It smelled strongly of cigarettes and general mustiness. We requested a new room and the front desk obliged, but the new room smelled exactly the same as the original one we were assigned. The coffeemaker was disgusting with residue inside the carafe as well as on the actual coffeemaker. The silverware and dishes in the kitchen looked like they came from a thrift store and also had food residue on them. 
+The A/C didn't work well and released humid, musty air (in a city with a pretty arid climate). We could hear noise (talking, TV) through the wall from our neighbors as well as people hanging out outside late into the night. The towels are tiny, paper-thin, and not absorbent at all. There were cigarette butts and handbills from strip clubs littering the parking lot and walkways. Hardly a classy experience. 
+We had reservations for two nights, but I ended up returning home and sleeping in our basement amidst the smell of strong fumes from having our floors refinished. This was preferable over having to spend another night at this disgusting hotel. I understand this was a budget hotel, so we didn't have high expectations. We just wanted something inexpensive since we needed to be out of our house. However, our experience...My husband and I were getting our hardwood floors refinished and needed to be out of our house for the weekend. The room smelled TERRIBLE when we arrived. It smelled strongly of cigarettes and general mustiness. We requested a new room and the front desk obliged, but the new room smelled exactly the same as the original one we were assigned. The coffeemaker was disgusting with residue inside the carafe as well as on the actual coffeemaker. The silverware and dishes in the kitchen looked like they came from a thrift store and also had food residue on them. The A/C didn't work well and released humid, musty air (in a city with a pretty arid climate). We could hear noise (talking, TV) through the wall from our neighbors as well as people hanging out outside late into the night. The towels are tiny, paper-thin, and not absorbent at all. There were cigarette butts and handbills from strip clubs littering the parking lot and walkways. Hardly a classy experience. We had reservations for two nights, but I ended up returning home and sleeping in our basement amidst the smell of strong fumes from having our floors refinished. This was preferable over having to spend another night at this disgusting hotel. I understand this was a budget hotel, so we didn't have high expectations. We just wanted something inexpensive since we needed to be out of our house. However, our experience was all around unpleasant and gross. I would avoid going back to this hotel at all costs and would absolutely NOT recommend this place to anyone else.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded April 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I were getting our hardwood floors refinished and needed to be out of our house for the weekend. The room smelled TERRIBLE when we arrived. It smelled strongly of cigarettes and general mustiness. We requested a new room and the front desk obliged, but the new room smelled exactly the same as the original one we were assigned. The coffeemaker was disgusting with residue inside the carafe as well as on the actual coffeemaker. The silverware and dishes in the kitchen looked like they came from a thrift store and also had food residue on them. 
+The A/C didn't work well and released humid, musty air (in a city with a pretty arid climate). We could hear noise (talking, TV) through the wall from our neighbors as well as people hanging out outside late into the night. The towels are tiny, paper-thin, and not absorbent at all. There were cigarette butts and handbills from strip clubs littering the parking lot and walkways. Hardly a classy experience. 
+We had reservations for two nights, but I ended up returning home and sleeping in our basement amidst the smell of strong fumes from having our floors refinished. This was preferable over having to spend another night at this disgusting hotel. I understand this was a budget hotel, so we didn't have high expectations. We just wanted something inexpensive since we needed to be out of our house. However, our experience...My husband and I were getting our hardwood floors refinished and needed to be out of our house for the weekend. The room smelled TERRIBLE when we arrived. It smelled strongly of cigarettes and general mustiness. We requested a new room and the front desk obliged, but the new room smelled exactly the same as the original one we were assigned. The coffeemaker was disgusting with residue inside the carafe as well as on the actual coffeemaker. The silverware and dishes in the kitchen looked like they came from a thrift store and also had food residue on them. The A/C didn't work well and released humid, musty air (in a city with a pretty arid climate). We could hear noise (talking, TV) through the wall from our neighbors as well as people hanging out outside late into the night. The towels are tiny, paper-thin, and not absorbent at all. There were cigarette butts and handbills from strip clubs littering the parking lot and walkways. Hardly a classy experience. We had reservations for two nights, but I ended up returning home and sleeping in our basement amidst the smell of strong fumes from having our floors refinished. This was preferable over having to spend another night at this disgusting hotel. I understand this was a budget hotel, so we didn't have high expectations. We just wanted something inexpensive since we needed to be out of our house. However, our experience was all around unpleasant and gross. I would avoid going back to this hotel at all costs and would absolutely NOT recommend this place to anyone else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r200152202-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>200152202</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>Disappointed..</t>
+  </si>
+  <si>
+    <t>The room didn't smell clean. The tv didn't seem to have a good connect. Room phone was dirty. The toaster was old and dirty also. You can hear the next room noise. Not enough parking . Don't recommend it...MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded April 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2014</t>
+  </si>
+  <si>
+    <t>The room didn't smell clean. The tv didn't seem to have a good connect. Room phone was dirty. The toaster was old and dirty also. You can hear the next room noise. Not enough parking . Don't recommend it...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r191291895-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>191291895</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>Worst hotel EVER</t>
+  </si>
+  <si>
+    <t>They don't have it together! Nobody updated the system when we moved to a different room because the first one was filthy and they kept knocking  at the room trying to figure out why we were there (the system said that room was vacant) Make yourself a favor and go somewhere else!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded January 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2014</t>
+  </si>
+  <si>
+    <t>They don't have it together! Nobody updated the system when we moved to a different room because the first one was filthy and they kept knocking  at the room trying to figure out why we were there (the system said that room was vacant) Make yourself a favor and go somewhere else!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r188014189-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>188014189</t>
+  </si>
+  <si>
+    <t>12/18/2013</t>
+  </si>
+  <si>
+    <t>Worst filthiest place to stay.....</t>
+  </si>
+  <si>
+    <t>This hotel has progressively gone down hill. It became an extended stay but it did not improve. Mold in bathrooms, rugs filthy, bedding old and torn and stained. Sheets that do not fit the bed. Beds old and sagging. Non-smoking rooms have people with the doors open and smoking. No control on temperature...the unit was so disgusting. Parking lot was lethal with ice. The staff response was "sorry about that"</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r187814549-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>187814549</t>
+  </si>
+  <si>
+    <t>12/16/2013</t>
+  </si>
+  <si>
+    <t>Not the worst stay I've ever had, but I wouldn't stay here again.</t>
+  </si>
+  <si>
+    <t>Bed was comfortable but there were HAIRS in the sheets!  Toilett didn't work and walls were filthy.  Heater didn't work right -just kept pumping out heat all night long regardless of temp selected.  Staff was not friendly.  Not very high quality.  Didn't feel very safe.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r180649996-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>180649996</t>
+  </si>
+  <si>
+    <t>10/11/2013</t>
+  </si>
+  <si>
+    <t>Not too shabby</t>
+  </si>
+  <si>
+    <t>It's not the cleanest of hotels, but after a night at the Crossland, it seemed pretty okay.  Be sure to wash any dishes you use first as they are likely not clean.  Someone else's hair was scattered about the bathroom and the bedspread had cigarette burns in it.  Other than that is was alright.  My heater didn't work and they responded promptly and ended up replacing the unit.  The staff were all generally friendly.I stayed here for two weeks, so the full size fridge and kitchenette were very nice to have.I wouldn't be upset if I had to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded October 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2013</t>
+  </si>
+  <si>
+    <t>It's not the cleanest of hotels, but after a night at the Crossland, it seemed pretty okay.  Be sure to wash any dishes you use first as they are likely not clean.  Someone else's hair was scattered about the bathroom and the bedspread had cigarette burns in it.  Other than that is was alright.  My heater didn't work and they responded promptly and ended up replacing the unit.  The staff were all generally friendly.I stayed here for two weeks, so the full size fridge and kitchenette were very nice to have.I wouldn't be upset if I had to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r180603551-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>180603551</t>
+  </si>
+  <si>
+    <t>Expected a little more from a cheap hotel</t>
+  </si>
+  <si>
+    <t>Staff were friendly, room was liveable but could have used a little more cleaning than picking up the trash (dishes were dirty, shower faucet stuck with calcium deposits, hair in the sheets that are assumed to be clean and on the bathroom floor), but when I needed a receipt from the front desk before I left for my 8 am flight, at 6:15, 15 min after the office is "open" (though I don't think it was ever locked), the lights are off and there's no one around - not even the sign indicating the staff was elsewhere.  I know I'm complaining about nitpicky things, but as a business, there needs to be a standard of basic efficiency and now I'm hoping that I can get a copy of my receipt with the detailed charges emailed to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff were friendly, room was liveable but could have used a little more cleaning than picking up the trash (dishes were dirty, shower faucet stuck with calcium deposits, hair in the sheets that are assumed to be clean and on the bathroom floor), but when I needed a receipt from the front desk before I left for my 8 am flight, at 6:15, 15 min after the office is "open" (though I don't think it was ever locked), the lights are off and there's no one around - not even the sign indicating the staff was elsewhere.  I know I'm complaining about nitpicky things, but as a business, there needs to be a standard of basic efficiency and now I'm hoping that I can get a copy of my receipt with the detailed charges emailed to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r176510757-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>176510757</t>
+  </si>
+  <si>
+    <t>09/09/2013</t>
+  </si>
+  <si>
+    <t>45 minute stay - too dirty and not safe</t>
+  </si>
+  <si>
+    <t>The guest room was disgusting.  Not expecting a 5 star experience, just clean room and safe environment.  Food debris in all cabinets, can of sardines and 3-4 ritz crackers in one cabinet.  Refrigerator seals caked with sticky debris.  Grease/sticky goo on top for fridge.  Kitchen floor not clean.  Spider in bath tub.  Cob webs in ceiling corners.  Ant trap on floor by door.  Pull out bed had never been made so could not use (shipping braces still attached to pull out portion).  Crayon marks all over mirror sliding door.  Counter top dirty. Drawers for clothes dirty.  While unloading into our room, had an audience of 10-15 people standing on various balconies watching, smoking.  Barefoot kids running around well after dark.  People walking around looking in windows, tapping on windows trying to get peoples attention.When I said we were checking out and going to another hotel because this was just not clean enough the front desk associate just said OK.  No apology, offer to fix. Nothing but OK.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded September 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2013</t>
+  </si>
+  <si>
+    <t>The guest room was disgusting.  Not expecting a 5 star experience, just clean room and safe environment.  Food debris in all cabinets, can of sardines and 3-4 ritz crackers in one cabinet.  Refrigerator seals caked with sticky debris.  Grease/sticky goo on top for fridge.  Kitchen floor not clean.  Spider in bath tub.  Cob webs in ceiling corners.  Ant trap on floor by door.  Pull out bed had never been made so could not use (shipping braces still attached to pull out portion).  Crayon marks all over mirror sliding door.  Counter top dirty. Drawers for clothes dirty.  While unloading into our room, had an audience of 10-15 people standing on various balconies watching, smoking.  Barefoot kids running around well after dark.  People walking around looking in windows, tapping on windows trying to get peoples attention.When I said we were checking out and going to another hotel because this was just not clean enough the front desk associate just said OK.  No apology, offer to fix. Nothing but OK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r171043487-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>171043487</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>Yuck!</t>
+  </si>
+  <si>
+    <t>This is a very run down and grimey hotel. It smelled bad and looked like it was furnished from GoodWill.  Bath tub looked grey and shower head dribbled instead of spraying. Broken closet door, so could not use the closet. They said they put iton the maintanence list--four days later still not fixed. Would not stay here again.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r170733840-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>170733840</t>
+  </si>
+  <si>
+    <t>08/04/2013</t>
+  </si>
+  <si>
+    <t>Probably the best of the cheap extended stay hotels in Denver</t>
+  </si>
+  <si>
+    <t>This is probably the best of extended stay hotels in Denver. Having driven around and looked at several, and escaping from my stay at one, I and my family elected to stay here for nearly a month. Note most of the extended stay hotels are owned by the same corporation. The bottom rung is Crossland Studios, followed by Extended Stay America, them Homestead. We stayed at the Crossland Studios in Thornton, and it was truly scary.
+We looked at the Crossland Studios a few blocks from here, and it looked pretty run-down. The quote they gave was higher than this Extended Stay America, so we chose to stay here. They initially offered us a room with 2 queen-size beds and a couch if we came back after 1:00. We said fine, cancelled our stay at the scary Crossland in Thornton (see my review of that fiasco), and returned around 1:00. They weren't ready yet - supposedly they agreed to let the person in our room stay an extra hour. Call at 2:00. Not ready then. Finally around 3:00 we got our room. It was not the room they had showed us. It had 2 double beds, no couch. Oops, sorry, that's all we have except for a smoking room with 2 queens. We had a look, it smelled awful. A quick consult and with no other option, we accepted the smaller room. Another look around the room, and we realized...This is probably the best of extended stay hotels in Denver. Having driven around and looked at several, and escaping from my stay at one, I and my family elected to stay here for nearly a month. Note most of the extended stay hotels are owned by the same corporation. The bottom rung is Crossland Studios, followed by Extended Stay America, them Homestead. We stayed at the Crossland Studios in Thornton, and it was truly scary.We looked at the Crossland Studios a few blocks from here, and it looked pretty run-down. The quote they gave was higher than this Extended Stay America, so we chose to stay here. They initially offered us a room with 2 queen-size beds and a couch if we came back after 1:00. We said fine, cancelled our stay at the scary Crossland in Thornton (see my review of that fiasco), and returned around 1:00. They weren't ready yet - supposedly they agreed to let the person in our room stay an extra hour. Call at 2:00. Not ready then. Finally around 3:00 we got our room. It was not the room they had showed us. It had 2 double beds, no couch. Oops, sorry, that's all we have except for a smoking room with 2 queens. We had a look, it smelled awful. A quick consult and with no other option, we accepted the smaller room. Another look around the room, and we realized they hadn't done much if any cleaning. Ah, well, off to a poor start with what felt like a bait-and-switch. Things got better after that, but the once a week cleaning was always marginal.The location was OK, with a Target store nearby and a decent park within walking distance, and a huge mall not far away. Wifi was fairly decent. The "grab and go" breakfast was nothing to write home about - a bit of fruit (apples and oranges), cheap muffins, but decent coffee.There appeared to be some ongoing prostitution in at least one of the rooms, and drug dealing in another, but it was quiet and I never felt threatened. Much easier to be around and pretend wasn't happening than at the Crossland.The hotel was supposedly being upgraded while we were there. They had just repaved the parking lot and were replacing some of the furniture.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded August 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2013</t>
+  </si>
+  <si>
+    <t>This is probably the best of extended stay hotels in Denver. Having driven around and looked at several, and escaping from my stay at one, I and my family elected to stay here for nearly a month. Note most of the extended stay hotels are owned by the same corporation. The bottom rung is Crossland Studios, followed by Extended Stay America, them Homestead. We stayed at the Crossland Studios in Thornton, and it was truly scary.
+We looked at the Crossland Studios a few blocks from here, and it looked pretty run-down. The quote they gave was higher than this Extended Stay America, so we chose to stay here. They initially offered us a room with 2 queen-size beds and a couch if we came back after 1:00. We said fine, cancelled our stay at the scary Crossland in Thornton (see my review of that fiasco), and returned around 1:00. They weren't ready yet - supposedly they agreed to let the person in our room stay an extra hour. Call at 2:00. Not ready then. Finally around 3:00 we got our room. It was not the room they had showed us. It had 2 double beds, no couch. Oops, sorry, that's all we have except for a smoking room with 2 queens. We had a look, it smelled awful. A quick consult and with no other option, we accepted the smaller room. Another look around the room, and we realized...This is probably the best of extended stay hotels in Denver. Having driven around and looked at several, and escaping from my stay at one, I and my family elected to stay here for nearly a month. Note most of the extended stay hotels are owned by the same corporation. The bottom rung is Crossland Studios, followed by Extended Stay America, them Homestead. We stayed at the Crossland Studios in Thornton, and it was truly scary.We looked at the Crossland Studios a few blocks from here, and it looked pretty run-down. The quote they gave was higher than this Extended Stay America, so we chose to stay here. They initially offered us a room with 2 queen-size beds and a couch if we came back after 1:00. We said fine, cancelled our stay at the scary Crossland in Thornton (see my review of that fiasco), and returned around 1:00. They weren't ready yet - supposedly they agreed to let the person in our room stay an extra hour. Call at 2:00. Not ready then. Finally around 3:00 we got our room. It was not the room they had showed us. It had 2 double beds, no couch. Oops, sorry, that's all we have except for a smoking room with 2 queens. We had a look, it smelled awful. A quick consult and with no other option, we accepted the smaller room. Another look around the room, and we realized they hadn't done much if any cleaning. Ah, well, off to a poor start with what felt like a bait-and-switch. Things got better after that, but the once a week cleaning was always marginal.The location was OK, with a Target store nearby and a decent park within walking distance, and a huge mall not far away. Wifi was fairly decent. The "grab and go" breakfast was nothing to write home about - a bit of fruit (apples and oranges), cheap muffins, but decent coffee.There appeared to be some ongoing prostitution in at least one of the rooms, and drug dealing in another, but it was quiet and I never felt threatened. Much easier to be around and pretend wasn't happening than at the Crossland.The hotel was supposedly being upgraded while we were there. They had just repaved the parking lot and were replacing some of the furniture.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r169076094-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>169076094</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Not Bad ....</t>
+  </si>
+  <si>
+    <t>Overall the room gave me what I needed a bed.  The kitchen was nice though I mainly used the frig to keep water cold.  The room was ok, would be nice if the sheets fix correctly and didn't wad up under me when I rolled over.  The carpet in my room was very well used but seemed clean it is just in need of updating - thread bare in spots.  Bathroom was clean but it too could use some updating.  For the money it wasn't bad and it was the best option available to me for my conference, everything closer was booked but getting to the convention center was easy thanks to directions given to me by a woman at the target right there by the units.  Staff (the one I met) was nice and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded July 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2013</t>
+  </si>
+  <si>
+    <t>Overall the room gave me what I needed a bed.  The kitchen was nice though I mainly used the frig to keep water cold.  The room was ok, would be nice if the sheets fix correctly and didn't wad up under me when I rolled over.  The carpet in my room was very well used but seemed clean it is just in need of updating - thread bare in spots.  Bathroom was clean but it too could use some updating.  For the money it wasn't bad and it was the best option available to me for my conference, everything closer was booked but getting to the convention center was easy thanks to directions given to me by a woman at the target right there by the units.  Staff (the one I met) was nice and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r164836339-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>164836339</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>Best Extended Stay in Denver</t>
+  </si>
+  <si>
+    <t>We have stayed at many Extended Stays here in the metro area, The Leetsdale location is by Far the best one in town. The rooms are very clean, the property is kept up nicely, its in a great location and the staff was absolutely the best I have encountered in a very long time. Everyone was very friendly and made sure to make us feel right at home! That always makes the stay better! Candice at the front desk was great, she was very polite and friendly over the phone and was very personable in person. She by far exceeded my expectations of great customer service. Thank you Candice and thank you Extended Stay staff, we enjoyed our stay and we will definitely be back again.Amy &amp; RonMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded July 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2013</t>
+  </si>
+  <si>
+    <t>We have stayed at many Extended Stays here in the metro area, The Leetsdale location is by Far the best one in town. The rooms are very clean, the property is kept up nicely, its in a great location and the staff was absolutely the best I have encountered in a very long time. Everyone was very friendly and made sure to make us feel right at home! That always makes the stay better! Candice at the front desk was great, she was very polite and friendly over the phone and was very personable in person. She by far exceeded my expectations of great customer service. Thank you Candice and thank you Extended Stay staff, we enjoyed our stay and we will definitely be back again.Amy &amp; RonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r164491342-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>164491342</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>I will come back anytime of the week and this hotel is the best place in town</t>
+  </si>
+  <si>
+    <t>management is great  good place to stay great people great area great room servicegreat for keepers this place was excellent I was referred by family Candice  is a great manager and Patricia by the wayshe's a excellent worker I love this place so much this is a number 5 hotel if you ask me thank you so much :):):):):):):):):):):):):):):):):):):);););););)MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded June 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2013</t>
+  </si>
+  <si>
+    <t>management is great  good place to stay great people great area great room servicegreat for keepers this place was excellent I was referred by family Candice  is a great manager and Patricia by the wayshe's a excellent worker I love this place so much this is a number 5 hotel if you ask me thank you so much :):):):):):):):):):):):):):):):):):):);););););)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r164406380-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>164406380</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Center of all chaos and drama</t>
+  </si>
+  <si>
+    <t>The rooms are fine. No complaints there. The neighborhood is fine. A Target a block down, nice grocery store, cute cafés, and so on. Nothing shady or dilapidated around. So then why have the police, ambulances and fire trucks been here every day for 2 weeks, no lie? A man has been arrested and his partner ceremoniously kicked out, another person has been brought out on a stretcher, and the whole-hotel fire alarm has been sounded twice. The police and an ambulance are outside now as I write, in broad daylight. 2 days ago, someone was going around popping the screens off all the windows, I guess to try to break into the rooms? There are other places very nearby to stay, but my job sent me here. I can't tell you how livid I am. Just stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are fine. No complaints there. The neighborhood is fine. A Target a block down, nice grocery store, cute cafés, and so on. Nothing shady or dilapidated around. So then why have the police, ambulances and fire trucks been here every day for 2 weeks, no lie? A man has been arrested and his partner ceremoniously kicked out, another person has been brought out on a stretcher, and the whole-hotel fire alarm has been sounded twice. The police and an ambulance are outside now as I write, in broad daylight. 2 days ago, someone was going around popping the screens off all the windows, I guess to try to break into the rooms? There are other places very nearby to stay, but my job sent me here. I can't tell you how livid I am. Just stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r162460778-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>162460778</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>Did the Job</t>
+  </si>
+  <si>
+    <t>While there is nothing fancy or updated about this hotel, I stayed here for a full 5 weeks on business and the staff was friendly and helpful. There was a night where the fire alarms kept going off, but other than that I found the stay tolerable. They have free (slow) wifi, onsite laundry, and it is relatively quiet. There is a convenient grocery store next to the hotel. An unbeatable rate is the draw of booking here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded June 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2013</t>
+  </si>
+  <si>
+    <t>While there is nothing fancy or updated about this hotel, I stayed here for a full 5 weeks on business and the staff was friendly and helpful. There was a night where the fire alarms kept going off, but other than that I found the stay tolerable. They have free (slow) wifi, onsite laundry, and it is relatively quiet. There is a convenient grocery store next to the hotel. An unbeatable rate is the draw of booking here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r160943747-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>160943747</t>
+  </si>
+  <si>
+    <t>05/16/2013</t>
+  </si>
+  <si>
+    <t>Not recommended.</t>
+  </si>
+  <si>
+    <t>While I won't say this is the worst place I have ever stayed, it is definitely not a place I would come back to. The room wreaks of cigarette smell. I opened my window to try to let some of the stench out, but it is too prominent. If you are prone to asthma or migraines... Or if you think cigarette smell is disgusting, stay away. The bathtub is black from the years of use. I understand that this happens, but it just needs to be replaced. Also, there are no elevators. If all the first floor rooms are occupied, be prepared to haul your luggage up the stairs. Lastly, they tell you that there is "free wifi". That is wrong. The free wifi they have is slower than the dial-up Internet I had in 1999. It took 3 minutes just to load my email. If you want wifi that isn't slow, you pay for it. I will say that the staff was pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>While I won't say this is the worst place I have ever stayed, it is definitely not a place I would come back to. The room wreaks of cigarette smell. I opened my window to try to let some of the stench out, but it is too prominent. If you are prone to asthma or migraines... Or if you think cigarette smell is disgusting, stay away. The bathtub is black from the years of use. I understand that this happens, but it just needs to be replaced. Also, there are no elevators. If all the first floor rooms are occupied, be prepared to haul your luggage up the stairs. Lastly, they tell you that there is "free wifi". That is wrong. The free wifi they have is slower than the dial-up Internet I had in 1999. It took 3 minutes just to load my email. If you want wifi that isn't slow, you pay for it. I will say that the staff was pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r158533341-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>158533341</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>NEVER STAYING HERE AGAIN</t>
+  </si>
+  <si>
+    <t>I just stayed at this establishment for 9 nights, the room was small, was not clean but not dirty. Could have been a lot better, the staff was nice at first but became unhelpful and rude towards the end of our stay.Our neighbors would play loud music every night and we could smell smoke. It's not safe, the type of people who stay here are not the best quality. We left a phone charger in the room plugged into the wall after our checkout, we called a few hours later after we remembered, the staff could not help is and advised we call back the next day. We did and they had no trace of the charger anywhere. They did not care it had grown legs from one of the maids who cleaned the room. I do not recommend this Extended Stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded April 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2013</t>
+  </si>
+  <si>
+    <t>I just stayed at this establishment for 9 nights, the room was small, was not clean but not dirty. Could have been a lot better, the staff was nice at first but became unhelpful and rude towards the end of our stay.Our neighbors would play loud music every night and we could smell smoke. It's not safe, the type of people who stay here are not the best quality. We left a phone charger in the room plugged into the wall after our checkout, we called a few hours later after we remembered, the staff could not help is and advised we call back the next day. We did and they had no trace of the charger anywhere. They did not care it had grown legs from one of the maids who cleaned the room. I do not recommend this Extended Stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r155717898-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>155717898</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>Forget this place!</t>
+  </si>
+  <si>
+    <t>Shabby accommodations; dirty and worn upholstery; kitchen not well stocked -- only a saucepan to cook in. Electric burners were crooked and didn't heat evenly. No dish soap. Bathroom was grimy with peeling paint, hairs in sink and bathtub. Felt like we were slumming.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded March 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2013</t>
+  </si>
+  <si>
+    <t>Shabby accommodations; dirty and worn upholstery; kitchen not well stocked -- only a saucepan to cook in. Electric burners were crooked and didn't heat evenly. No dish soap. Bathroom was grimy with peeling paint, hairs in sink and bathtub. Felt like we were slumming.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r154255158-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>154255158</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>I recommend this hotel to be a vacation place</t>
+  </si>
+  <si>
+    <t>The staff has been very helpful-Peter, Pat, and Cynthia are great! Wonderful management, a very well run hotel! I highly recommend this hotel!.:-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-);-);-);-);-);-);-);-);-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-)MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded March 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2013</t>
+  </si>
+  <si>
+    <t>The staff has been very helpful-Peter, Pat, and Cynthia are great! Wonderful management, a very well run hotel! I highly recommend this hotel!.:-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-);-);-);-);-);-);-);-);-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-):-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r153705117-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>153705117</t>
+  </si>
+  <si>
+    <t>03/04/2013</t>
+  </si>
+  <si>
+    <t>No heat, no drinkware &amp; 13% sales tax = horrible stay</t>
+  </si>
+  <si>
+    <t>There was no drinkware, glasses or mugs, in our room so we drank from the sink until the morning.  We were not told that the heat was controlled using the wall themostat, instead of the big floor unit that had the option of heat on it so we had a very cold room.  We tried using the floor unit, but it wouldn't turn on the heat.  Be aware that the city of Glendale, where the hotel is, has a 13% tax, so when you check out your bill jumps about $10.  The beds are rock hard, also.  I wish I would have gotten some of my money back, since I had a horrible experience.  I will not be returning.  My friends who also stayed here said when they went to their room, it was ajar &amp; they entered thinking someone else would be in it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded March 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2013</t>
+  </si>
+  <si>
+    <t>There was no drinkware, glasses or mugs, in our room so we drank from the sink until the morning.  We were not told that the heat was controlled using the wall themostat, instead of the big floor unit that had the option of heat on it so we had a very cold room.  We tried using the floor unit, but it wouldn't turn on the heat.  Be aware that the city of Glendale, where the hotel is, has a 13% tax, so when you check out your bill jumps about $10.  The beds are rock hard, also.  I wish I would have gotten some of my money back, since I had a horrible experience.  I will not be returning.  My friends who also stayed here said when they went to their room, it was ajar &amp; they entered thinking someone else would be in it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r152075251-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>152075251</t>
+  </si>
+  <si>
+    <t>02/13/2013</t>
+  </si>
+  <si>
+    <t>my home away from home</t>
+  </si>
+  <si>
+    <t>this locaion past due for review... stayed for two weeks this visitFirst.. only deal with PETER  (white gentleman day shift) and the black gentleman,(night shift) sorry dont know his name..They both know how to do their job, the entire staff does great too, i just like dealing with these two. and makes sure that your really satisfied with your stay,I was able to feel comfortable and lay on the bed, to my surprise i slept good. Nice to see they had the flat tv's alsoAlo their maintenace guy, is very handy and responds to quickly, and gets the job done. I enjoy my stay here, able to put my own touches in the room,Close to my jobs also, and shopping centers, couldnt get any better than that for me when it comes to me handleing my businessMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded February 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2013</t>
+  </si>
+  <si>
+    <t>this locaion past due for review... stayed for two weeks this visitFirst.. only deal with PETER  (white gentleman day shift) and the black gentleman,(night shift) sorry dont know his name..They both know how to do their job, the entire staff does great too, i just like dealing with these two. and makes sure that your really satisfied with your stay,I was able to feel comfortable and lay on the bed, to my surprise i slept good. Nice to see they had the flat tv's alsoAlo their maintenace guy, is very handy and responds to quickly, and gets the job done. I enjoy my stay here, able to put my own touches in the room,Close to my jobs also, and shopping centers, couldnt get any better than that for me when it comes to me handleing my businessMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r148017091-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>148017091</t>
+  </si>
+  <si>
+    <t>12/24/2012</t>
+  </si>
+  <si>
+    <t>I cancelled when I walked in the room</t>
+  </si>
+  <si>
+    <t>We were due at National Jewish Hospital over the holidays and reserved 3 rooms for a total of 39 nights to accommodate us, them, and a grandparent.  The front desk agent was nice enough, however when I walked into the room I got that 'feeling'.   For a room we were going to be in for 17 nights, it was small, dingy white walls, dirty bathroom, full garbage under the sink, and dirty frig.  We went a few miles further from National Jewish, spent a few extra dollars, cancelled our reservation at this location, and just had Christmas dinner cooked and served (creatively) in our room for 5 adults and 2 children.  The Marriott Town Place Suites has better desk attendants, daily room freshening, complimentary limited breakfast, larger rooms, and is halfway through a renovation that looking at our room did not need it near as bad as the Homestead room!  I do not remember the last time I walked out of a reservation, but this was a poor choice on my part.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded December 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2012</t>
+  </si>
+  <si>
+    <t>We were due at National Jewish Hospital over the holidays and reserved 3 rooms for a total of 39 nights to accommodate us, them, and a grandparent.  The front desk agent was nice enough, however when I walked into the room I got that 'feeling'.   For a room we were going to be in for 17 nights, it was small, dingy white walls, dirty bathroom, full garbage under the sink, and dirty frig.  We went a few miles further from National Jewish, spent a few extra dollars, cancelled our reservation at this location, and just had Christmas dinner cooked and served (creatively) in our room for 5 adults and 2 children.  The Marriott Town Place Suites has better desk attendants, daily room freshening, complimentary limited breakfast, larger rooms, and is halfway through a renovation that looking at our room did not need it near as bad as the Homestead room!  I do not remember the last time I walked out of a reservation, but this was a poor choice on my part.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r145353204-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>145353204</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>So close to being a great place to stay</t>
+  </si>
+  <si>
+    <t>I booked the Homestead Cherry Creek blindly through Hotwire and got a very good deal. I stayed here for 4 days with my wife for a wedding trip. As a business, your best asset is your people. And the people at the Homestead were very friendly and very receptive to being contacted. The exterior of the property is made of stucco and surrounded by a tasteful fence. There is plenty of parking and most rooms are far enough from the busy street of Leetsdale to be fairly quiet. I definitely felt like I was in a safe part of town and it was relatively close to the downtown area. The room that we stayed in was an efficiency suite, with the bedroom combined with the kitchenette/eating area. The room door was not fitted very well, with daylight clearly visible at the bottom of the door (read: a bit drafty). Also, the manual security latch wasn't secure to the door or the door jamb. The room was claimed to be non-smoking, but perhaps that wasn't always the case as there was a faint scent of smoke from long ago. The furnishing were adequate, if not fairly nice. A flat screen television with a basic cable program lineup was a nice thing to have. The suite's bathroom had a tub/shower combo. The bed was queen sized and pretty firm. The bedding was very basic and the fitted sheet kept slipping off of...I booked the Homestead Cherry Creek blindly through Hotwire and got a very good deal. I stayed here for 4 days with my wife for a wedding trip. As a business, your best asset is your people. And the people at the Homestead were very friendly and very receptive to being contacted. The exterior of the property is made of stucco and surrounded by a tasteful fence. There is plenty of parking and most rooms are far enough from the busy street of Leetsdale to be fairly quiet. I definitely felt like I was in a safe part of town and it was relatively close to the downtown area. The room that we stayed in was an efficiency suite, with the bedroom combined with the kitchenette/eating area. The room door was not fitted very well, with daylight clearly visible at the bottom of the door (read: a bit drafty). Also, the manual security latch wasn't secure to the door or the door jamb. The room was claimed to be non-smoking, but perhaps that wasn't always the case as there was a faint scent of smoke from long ago. The furnishing were adequate, if not fairly nice. A flat screen television with a basic cable program lineup was a nice thing to have. The suite's bathroom had a tub/shower combo. The bed was queen sized and pretty firm. The bedding was very basic and the fitted sheet kept slipping off of the mattress every night. This became quite annoying. I really appreciated the suite layout for a long-term stay and it served us well overall. I was not nearly as offended by the level of cleanliness as other reviewers of this property, however I felt like it is the subtle lack of cleanliness that makes this property just average and not necessarily great. If you stay in hostels a fair amount like I do, you'll find the Homestead plenty clean, but it's probably lacking in cleanliness for a hotel. Unlike other reviewers, I found the sheets and towels plenty clean, but not so much for counters, walls, cabinets, and floors. Another thing of hostel, not hotel, quality was the lack of hot water when taking a shower in the morning. My wife and I both had to endure partly cold showers a couple of the mornings at the Homestead. In fairness, the water was plenty hot other times of the day that I showered. Also, after complaining to the front desk, they offered to move us to another room if the shower water was unacceptable. Overall, I liked my experience at the Homestead, but would be reluctant to recommend it to anyone who isn't prepared to deal with the subtle lack of cleanliness, the bedding, or the lack of hot shower water on-demand. I would stay here again, but sincerely hope that my three big gripes will be addressed before then.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Adrian S, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded November 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2012</t>
+  </si>
+  <si>
+    <t>I booked the Homestead Cherry Creek blindly through Hotwire and got a very good deal. I stayed here for 4 days with my wife for a wedding trip. As a business, your best asset is your people. And the people at the Homestead were very friendly and very receptive to being contacted. The exterior of the property is made of stucco and surrounded by a tasteful fence. There is plenty of parking and most rooms are far enough from the busy street of Leetsdale to be fairly quiet. I definitely felt like I was in a safe part of town and it was relatively close to the downtown area. The room that we stayed in was an efficiency suite, with the bedroom combined with the kitchenette/eating area. The room door was not fitted very well, with daylight clearly visible at the bottom of the door (read: a bit drafty). Also, the manual security latch wasn't secure to the door or the door jamb. The room was claimed to be non-smoking, but perhaps that wasn't always the case as there was a faint scent of smoke from long ago. The furnishing were adequate, if not fairly nice. A flat screen television with a basic cable program lineup was a nice thing to have. The suite's bathroom had a tub/shower combo. The bed was queen sized and pretty firm. The bedding was very basic and the fitted sheet kept slipping off of...I booked the Homestead Cherry Creek blindly through Hotwire and got a very good deal. I stayed here for 4 days with my wife for a wedding trip. As a business, your best asset is your people. And the people at the Homestead were very friendly and very receptive to being contacted. The exterior of the property is made of stucco and surrounded by a tasteful fence. There is plenty of parking and most rooms are far enough from the busy street of Leetsdale to be fairly quiet. I definitely felt like I was in a safe part of town and it was relatively close to the downtown area. The room that we stayed in was an efficiency suite, with the bedroom combined with the kitchenette/eating area. The room door was not fitted very well, with daylight clearly visible at the bottom of the door (read: a bit drafty). Also, the manual security latch wasn't secure to the door or the door jamb. The room was claimed to be non-smoking, but perhaps that wasn't always the case as there was a faint scent of smoke from long ago. The furnishing were adequate, if not fairly nice. A flat screen television with a basic cable program lineup was a nice thing to have. The suite's bathroom had a tub/shower combo. The bed was queen sized and pretty firm. The bedding was very basic and the fitted sheet kept slipping off of the mattress every night. This became quite annoying. I really appreciated the suite layout for a long-term stay and it served us well overall. I was not nearly as offended by the level of cleanliness as other reviewers of this property, however I felt like it is the subtle lack of cleanliness that makes this property just average and not necessarily great. If you stay in hostels a fair amount like I do, you'll find the Homestead plenty clean, but it's probably lacking in cleanliness for a hotel. Unlike other reviewers, I found the sheets and towels plenty clean, but not so much for counters, walls, cabinets, and floors. Another thing of hostel, not hotel, quality was the lack of hot water when taking a shower in the morning. My wife and I both had to endure partly cold showers a couple of the mornings at the Homestead. In fairness, the water was plenty hot other times of the day that I showered. Also, after complaining to the front desk, they offered to move us to another room if the shower water was unacceptable. Overall, I liked my experience at the Homestead, but would be reluctant to recommend it to anyone who isn't prepared to deal with the subtle lack of cleanliness, the bedding, or the lack of hot shower water on-demand. I would stay here again, but sincerely hope that my three big gripes will be addressed before then.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r140342288-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>140342288</t>
+  </si>
+  <si>
+    <t>09/15/2012</t>
+  </si>
+  <si>
+    <t>Don't Stay Here--It's Filthy!</t>
+  </si>
+  <si>
+    <t>I bought a night at this hotel for 68 bucks over Hotwire; one of those situations where you don't know where the hotel room is, but get a "good deal."  So far from the truth!  I knew I was in trouble right away because the office door was dirty and chipped--didn't even close all the way.  I checked in by myself because my husband was to arrive later.  I couldn't wait for him to get there because I was afraid.  The rooms are the ones doors are to the outside.  I could smell cigarettes all the way to my room from the people who were obviously living in this place.  The room was filthy.  There were grime streaks on the cream cupboards, the floors in the kitchen and bath were also filthy, and I wouldn't use the shower to save my soul it was so disgusting.  There were flying bugs in the room--flies of some sort.  The bedding was 20 years old with the foamy kind of blankets and pilled bedspread.  The only, and I mean only redeeming quality of the room was the new carpeting.  I still kept my shoes on in the room because I didn't want my socks contaminated.  The chair was completely disgusting--uh the dirt spots.  At 3:15 in the afternoon two people are outside my door knocking.  I didn't answer, and the guy uses a key to open the door.  Luckily my safety latch was...I bought a night at this hotel for 68 bucks over Hotwire; one of those situations where you don't know where the hotel room is, but get a "good deal."  So far from the truth!  I knew I was in trouble right away because the office door was dirty and chipped--didn't even close all the way.  I checked in by myself because my husband was to arrive later.  I couldn't wait for him to get there because I was afraid.  The rooms are the ones doors are to the outside.  I could smell cigarettes all the way to my room from the people who were obviously living in this place.  The room was filthy.  There were grime streaks on the cream cupboards, the floors in the kitchen and bath were also filthy, and I wouldn't use the shower to save my soul it was so disgusting.  There were flying bugs in the room--flies of some sort.  The bedding was 20 years old with the foamy kind of blankets and pilled bedspread.  The only, and I mean only redeeming quality of the room was the new carpeting.  I still kept my shoes on in the room because I didn't want my socks contaminated.  The chair was completely disgusting--uh the dirt spots.  At 3:15 in the afternoon two people are outside my door knocking.  I didn't answer, and the guy uses a key to open the door.  Luckily my safety latch was secured.  Through the opening, I say "Can I help you?"  He replies that he wants to clean out the air conditioning filter.  I say no thanks.  What was that all about?  Do those things BEFORE I check in...  What a nightmare.  The building was right behind a Target store, so we heard them backing up all night long.  I haven't had that rotten of a night's sleep in a long time.   I really wondered if my tires were going to be on my car in the morning!  I couldn't wait to get out of there!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded September 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2012</t>
+  </si>
+  <si>
+    <t>I bought a night at this hotel for 68 bucks over Hotwire; one of those situations where you don't know where the hotel room is, but get a "good deal."  So far from the truth!  I knew I was in trouble right away because the office door was dirty and chipped--didn't even close all the way.  I checked in by myself because my husband was to arrive later.  I couldn't wait for him to get there because I was afraid.  The rooms are the ones doors are to the outside.  I could smell cigarettes all the way to my room from the people who were obviously living in this place.  The room was filthy.  There were grime streaks on the cream cupboards, the floors in the kitchen and bath were also filthy, and I wouldn't use the shower to save my soul it was so disgusting.  There were flying bugs in the room--flies of some sort.  The bedding was 20 years old with the foamy kind of blankets and pilled bedspread.  The only, and I mean only redeeming quality of the room was the new carpeting.  I still kept my shoes on in the room because I didn't want my socks contaminated.  The chair was completely disgusting--uh the dirt spots.  At 3:15 in the afternoon two people are outside my door knocking.  I didn't answer, and the guy uses a key to open the door.  Luckily my safety latch was...I bought a night at this hotel for 68 bucks over Hotwire; one of those situations where you don't know where the hotel room is, but get a "good deal."  So far from the truth!  I knew I was in trouble right away because the office door was dirty and chipped--didn't even close all the way.  I checked in by myself because my husband was to arrive later.  I couldn't wait for him to get there because I was afraid.  The rooms are the ones doors are to the outside.  I could smell cigarettes all the way to my room from the people who were obviously living in this place.  The room was filthy.  There were grime streaks on the cream cupboards, the floors in the kitchen and bath were also filthy, and I wouldn't use the shower to save my soul it was so disgusting.  There were flying bugs in the room--flies of some sort.  The bedding was 20 years old with the foamy kind of blankets and pilled bedspread.  The only, and I mean only redeeming quality of the room was the new carpeting.  I still kept my shoes on in the room because I didn't want my socks contaminated.  The chair was completely disgusting--uh the dirt spots.  At 3:15 in the afternoon two people are outside my door knocking.  I didn't answer, and the guy uses a key to open the door.  Luckily my safety latch was secured.  Through the opening, I say "Can I help you?"  He replies that he wants to clean out the air conditioning filter.  I say no thanks.  What was that all about?  Do those things BEFORE I check in...  What a nightmare.  The building was right behind a Target store, so we heard them backing up all night long.  I haven't had that rotten of a night's sleep in a long time.   I really wondered if my tires were going to be on my car in the morning!  I couldn't wait to get out of there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r139279123-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>139279123</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>Dirty!!</t>
+  </si>
+  <si>
+    <t>I'd hate to say you get what you pay for, but I would have expected it to be clean at least. There was blood on the bedding and pubic hair all over the bathroom. I didn't notice the stains on the bedding until the next morning. Still grosses me out just thinking about it. Only positive thing was the location to stores and things. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded September 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2012</t>
+  </si>
+  <si>
+    <t>I'd hate to say you get what you pay for, but I would have expected it to be clean at least. There was blood on the bedding and pubic hair all over the bathroom. I didn't notice the stains on the bedding until the next morning. Still grosses me out just thinking about it. Only positive thing was the location to stores and things. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r138940260-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>138940260</t>
+  </si>
+  <si>
+    <t>08/30/2012</t>
+  </si>
+  <si>
+    <t>Wish the rooms looked as good at the exterior!</t>
+  </si>
+  <si>
+    <t>The exterior of the hotel looks decent. It is nice and well lit. It is located next to a Super Target, and it has a kitchen, fridge and microwave, so if you wanted to do an extended stay it is a good location. Upon entering the room, there was no soap, shampoo, etc, which I inquired about at the front desk, the clerk was very friendly and helped us out, since housekeeping forgot to restock the room with supplies. The closet has hanger space, but no hangers. There is a coffee machine, but no cups. Get the picture? When I opened the fridge, the bottom part of it fell apart and I had to use a bar stool to keep it closed. The comforter was really dingy. There was a hole in it (which looked suspiciously like a cigarette burn or the like) and there were black and yellow stains on the inside. No bed bugs, no breakfast. Pillows aren't very comfortable, but hey I paid 42 dollars for this room on hotwire, so you get what you pay for. And, as I am writing this review, (no joke) the lower part of the bed just collapsed, therefore my original rating of 2 stars gets a pushy shove down to one lonesome star.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded September 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2012</t>
+  </si>
+  <si>
+    <t>The exterior of the hotel looks decent. It is nice and well lit. It is located next to a Super Target, and it has a kitchen, fridge and microwave, so if you wanted to do an extended stay it is a good location. Upon entering the room, there was no soap, shampoo, etc, which I inquired about at the front desk, the clerk was very friendly and helped us out, since housekeeping forgot to restock the room with supplies. The closet has hanger space, but no hangers. There is a coffee machine, but no cups. Get the picture? When I opened the fridge, the bottom part of it fell apart and I had to use a bar stool to keep it closed. The comforter was really dingy. There was a hole in it (which looked suspiciously like a cigarette burn or the like) and there were black and yellow stains on the inside. No bed bugs, no breakfast. Pillows aren't very comfortable, but hey I paid 42 dollars for this room on hotwire, so you get what you pay for. And, as I am writing this review, (no joke) the lower part of the bed just collapsed, therefore my original rating of 2 stars gets a pushy shove down to one lonesome star.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r134390621-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>134390621</t>
+  </si>
+  <si>
+    <t>07/14/2012</t>
+  </si>
+  <si>
+    <t>bad bad bad</t>
+  </si>
+  <si>
+    <t>the bed was broken i called to be fixed no response u have to stay a week to get your room cleanedMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Denver - Cherry Creek, responded to this reviewResponded July 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2012</t>
+  </si>
+  <si>
+    <t>the bed was broken i called to be fixed no response u have to stay a week to get your room cleanedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r133202521-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>133202521</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>Glad we didn't stay longer</t>
+  </si>
+  <si>
+    <t>This motel looks good from the outside, but it needs some updates.  They have studio rooms with small kitchens.  The bed was awful, like sleeping in a hole.  The sheets were too small for the bed and would not stay on.  The A/C barely worked and clanked all night.  They had no ice and no coffee in the office.  Our room did not have a coffee maker but they gave us one.  The best thing about the motel is the location - very convienent to downtown Denver.  The Mexican restaurant next door is pretty good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>This motel looks good from the outside, but it needs some updates.  They have studio rooms with small kitchens.  The bed was awful, like sleeping in a hole.  The sheets were too small for the bed and would not stay on.  The A/C barely worked and clanked all night.  They had no ice and no coffee in the office.  Our room did not have a coffee maker but they gave us one.  The best thing about the motel is the location - very convienent to downtown Denver.  The Mexican restaurant next door is pretty good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r129678254-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>129678254</t>
+  </si>
+  <si>
+    <t>05/09/2012</t>
+  </si>
+  <si>
+    <t>Service is terrible, rooms dirty, wifi worthless</t>
+  </si>
+  <si>
+    <t>For $40 bucks a night I wasn't expecting the ritz, or anything like it.  But I was hoping for a clean room, with wifi, and a basic kitchen... What I got was cigarette holes in the bed spread, stains on the counter-tops and dirt in every corner.  The wifi has been slow the entire stay but last night it was like using dial-up or something.  I called the front desk and they told me to call their service provider!  How's that for service!  45 minutes later I had no resolution.  Today the router is completely broken - and I got a similarly helpful response from the front desk.  In short - this place is a dump!!!  Skip it! MoreShow less</t>
+  </si>
+  <si>
+    <t>For $40 bucks a night I wasn't expecting the ritz, or anything like it.  But I was hoping for a clean room, with wifi, and a basic kitchen... What I got was cigarette holes in the bed spread, stains on the counter-tops and dirt in every corner.  The wifi has been slow the entire stay but last night it was like using dial-up or something.  I called the front desk and they told me to call their service provider!  How's that for service!  45 minutes later I had no resolution.  Today the router is completely broken - and I got a similarly helpful response from the front desk.  In short - this place is a dump!!!  Skip it! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r124403149-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>124403149</t>
+  </si>
+  <si>
+    <t>02/10/2012</t>
+  </si>
+  <si>
+    <t>Liked the hotel but we didn’t feel especially safe here....</t>
+  </si>
+  <si>
+    <t>We spent three nights here. The room was fine and I liked the kitchenette. The location was fairly central to places we wanted to go, including the Museum of Science and Nature, and there were several interesting restaurant choices within a few miles, including Wahooz Fish Tacos. I liked the hotel but we didn’t feel especially safe here. One night, we were woken about 3 a.m. by people throwing fireworks in the parking lot and when my wife looked out our third floor window to see what was going on, a woman in a car below yelled obscenities at her. Another time, there were a bunch of cops apparently responding to something that happened in one of the rooms. I’ll definitely look for an alternative before staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>We spent three nights here. The room was fine and I liked the kitchenette. The location was fairly central to places we wanted to go, including the Museum of Science and Nature, and there were several interesting restaurant choices within a few miles, including Wahooz Fish Tacos. I liked the hotel but we didn’t feel especially safe here. One night, we were woken about 3 a.m. by people throwing fireworks in the parking lot and when my wife looked out our third floor window to see what was going on, a woman in a car below yelled obscenities at her. Another time, there were a bunch of cops apparently responding to something that happened in one of the rooms. I’ll definitely look for an alternative before staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r120312379-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>120312379</t>
+  </si>
+  <si>
+    <t>11/07/2011</t>
+  </si>
+  <si>
+    <t>really good place to stay</t>
+  </si>
+  <si>
+    <t>the homestead was a legit place to sleep for the night. cozy and comfy. clean and accomidating. if u needed to stay there for a week or longer as well its really good. free wifi and cable with showtime. mini kitchen and comfy bed. highly recommended!!</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r119489724-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>119489724</t>
+  </si>
+  <si>
+    <t>10/19/2011</t>
+  </si>
+  <si>
+    <t>Clean, but....</t>
+  </si>
+  <si>
+    <t>mostly Clean, but...got $60/night rate, hated to pay even that much.  Desk staff is friendly and helpfulSofa Sleeper was in deplorable condition, only a child under 10 could sleep on it because they wouldn't care of it's condition. No sheets or blanket is kept in the room, have to go to desk which one does not want to do at 10pm.looked clean at first, but top of small fridge had grease mixed with dust, grime on the "woodwork" along floors, the cabinetry is falling apart.Beds are uncomfortable, pillows are fluffy.  Door to unit was hard to close and open as it did not fit the frame anymore - this is a serious safety/fire issue.A/C doesn't cool well and filtering doesn't work as room gets stuffy after cooking.  Next to the best King Soopers in the state of CO (the only one to have a wine room), Target Superstore on the other side, Gunther Tooties (sp?) next to hotel, Mexican restaurant also.  Glendale is a nice area to stay in even if the hotel isn't.Busy street on north side of building.Bus Stop nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>mostly Clean, but...got $60/night rate, hated to pay even that much.  Desk staff is friendly and helpfulSofa Sleeper was in deplorable condition, only a child under 10 could sleep on it because they wouldn't care of it's condition. No sheets or blanket is kept in the room, have to go to desk which one does not want to do at 10pm.looked clean at first, but top of small fridge had grease mixed with dust, grime on the "woodwork" along floors, the cabinetry is falling apart.Beds are uncomfortable, pillows are fluffy.  Door to unit was hard to close and open as it did not fit the frame anymore - this is a serious safety/fire issue.A/C doesn't cool well and filtering doesn't work as room gets stuffy after cooking.  Next to the best King Soopers in the state of CO (the only one to have a wine room), Target Superstore on the other side, Gunther Tooties (sp?) next to hotel, Mexican restaurant also.  Glendale is a nice area to stay in even if the hotel isn't.Busy street on north side of building.Bus Stop nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r114739575-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>114739575</t>
+  </si>
+  <si>
+    <t>06/25/2011</t>
+  </si>
+  <si>
+    <t>Discovered by accident</t>
+  </si>
+  <si>
+    <t>Clean rooms, separated living quarters, it included a kitchen! We were travelling with a family of four with two under 4. And we searched for a reasonable priced hotel. Yes! This is the first hotel chain that I've found me "preferring" and willing to spend a few extra bucks for as the extra benefits like complimentary dinners and breakfast was a nice surprise! ...It's an obvious business traveler destination - as we saw many briefcases - however it worked for our family and budget as the money save on the two meals plus ability cook in our room was priceless.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r102287872-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>102287872</t>
+  </si>
+  <si>
+    <t>03/31/2011</t>
+  </si>
+  <si>
+    <t>Good stay and value</t>
+  </si>
+  <si>
+    <t>We enjoyed our comfortable stay in this extended stay property while visiting family in the area.  Convenient location to shopping and eats.  We had no problems with the property or amenities offered by the hotel.  As in any hotel you may find some rude folks, who affect your stay.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r97766858-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>97766858</t>
+  </si>
+  <si>
+    <t>02/23/2011</t>
+  </si>
+  <si>
+    <t>Not horrible but not worth the money</t>
+  </si>
+  <si>
+    <t>We stayed at the Homestead Denver Cherry Creek for two weeks while we waited for the closing date on our house.  We picked Homestead for the moderate price, good location and reasonable reviews.  While Im sure things could have been much worse my wife and I were very disappointed with our stay at Homeland.  Upon checkin we were told that house keeping would be by weekly on Tuesday.  Both weeks we were there they neglected to clean our room without constant reminders.  Once they did come by they did a very poor job of cleaning.  The WiFi had horrible signal strength even though we were only one room away from the main office and it was so slow that we essentially didn't really have internet.  The main doors did really close without you slamming them so we were constantly woken up throughout the night by neighbors going in and out of rooms.  To top it off the laundry facilities were not all that great and the dryers did really work.  All in all we were very disappointed with our stay, and while we wont have the opportunity to stay at Homestead again since we now live in Denver we cannot recommend that anyone else stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>We stayed at the Homestead Denver Cherry Creek for two weeks while we waited for the closing date on our house.  We picked Homestead for the moderate price, good location and reasonable reviews.  While Im sure things could have been much worse my wife and I were very disappointed with our stay at Homeland.  Upon checkin we were told that house keeping would be by weekly on Tuesday.  Both weeks we were there they neglected to clean our room without constant reminders.  Once they did come by they did a very poor job of cleaning.  The WiFi had horrible signal strength even though we were only one room away from the main office and it was so slow that we essentially didn't really have internet.  The main doors did really close without you slamming them so we were constantly woken up throughout the night by neighbors going in and out of rooms.  To top it off the laundry facilities were not all that great and the dryers did really work.  All in all we were very disappointed with our stay, and while we wont have the opportunity to stay at Homestead again since we now live in Denver we cannot recommend that anyone else stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r77758465-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>77758465</t>
+  </si>
+  <si>
+    <t>08/31/2010</t>
+  </si>
+  <si>
+    <t>Fair price, comfortable room. No problems.</t>
+  </si>
+  <si>
+    <t>Based on the varied reviews I avoided this place during a previous week-long assignment in Denver despite a manager's recommendation. However, this trip was just for 1 day so I booked here via hotels.com and with an online coupon got the room for $56.I'd stay here again if I was on a budget, although the room was a little below the quality of my previous higher-priced hotel, however it had the benefit of a kitchenette. Importantly, the room was quiet and had everything I needed. The location was behind a Target and across the street from a retro diner and about 30 mins from the airport. I passed quite a few stores on Colorado as I headed here from the airport so there is 'life' nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>Based on the varied reviews I avoided this place during a previous week-long assignment in Denver despite a manager's recommendation. However, this trip was just for 1 day so I booked here via hotels.com and with an online coupon got the room for $56.I'd stay here again if I was on a budget, although the room was a little below the quality of my previous higher-priced hotel, however it had the benefit of a kitchenette. Importantly, the room was quiet and had everything I needed. The location was behind a Target and across the street from a retro diner and about 30 mins from the airport. I passed quite a few stores on Colorado as I headed here from the airport so there is 'life' nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r76894303-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>76894303</t>
+  </si>
+  <si>
+    <t>08/25/2010</t>
+  </si>
+  <si>
+    <t>Would probably stay here again.</t>
+  </si>
+  <si>
+    <t>My wife and I felt this facility was satisfactory - it's not a Hampton Inn but not bad.  We thought the weekly rate was relatively good for the Cherry Creek area.  The staff was accommodating and responsive.  Rooms in the middle area are probably the quietest.  Not far from expansive shopping in Cherry Creek.  I would also like to mention GUNTHER TOODY'S RESTAURANT right across the street which was clean and had a 1950's diner theme, a fun atmosphere, very good food, and generous portions.  They offered a 20% discount to motel guests anytime on already reasonable prices plus on certain days they had specials like a hamburger deal and all you can eat chicken fingers.  Eating there is an added reason to stay at Homestead.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>My wife and I felt this facility was satisfactory - it's not a Hampton Inn but not bad.  We thought the weekly rate was relatively good for the Cherry Creek area.  The staff was accommodating and responsive.  Rooms in the middle area are probably the quietest.  Not far from expansive shopping in Cherry Creek.  I would also like to mention GUNTHER TOODY'S RESTAURANT right across the street which was clean and had a 1950's diner theme, a fun atmosphere, very good food, and generous portions.  They offered a 20% discount to motel guests anytime on already reasonable prices plus on certain days they had specials like a hamburger deal and all you can eat chicken fingers.  Eating there is an added reason to stay at Homestead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r75615362-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>75615362</t>
+  </si>
+  <si>
+    <t>08/17/2010</t>
+  </si>
+  <si>
+    <t>Great hotel for value and location.</t>
+  </si>
+  <si>
+    <t>This hotel was very easy to access if you want to be in the Cherry Creek area.  It was very safe and quiet.  The staff was friendly, and the price was amazing.  We were able to explore the many great areas of Denver from this location.  The 16th Street mall was only a driving distance of 15 minutes.  We will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r11127843-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>11127843</t>
+  </si>
+  <si>
+    <t>11/28/2007</t>
+  </si>
+  <si>
+    <t>Far from the action</t>
+  </si>
+  <si>
+    <t>I came for a Microsoft partner conference that was at the downtown convention center. It was so big that I saw plenty of other attendees also walking back to hotels in the Glendale/Cherry Creek area, easily identified by their complimentary conference bags. I paid $70 for three nights. The room was big, with an almost comically oversized walk-in closet. Furnishings and amenities were competent but non-descript. Colorado Boulevard, a major driving road with lots of restaurants was nearby, as was Cherry Creek Shopping Center, though walking there didn't seem advisable (Colorado Blvd. being too noisy and full of cars). Just too suburban, but a decent deal.</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r8074065-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>8074065</t>
+  </si>
+  <si>
+    <t>07/06/2007</t>
+  </si>
+  <si>
+    <t>Lousy Management</t>
+  </si>
+  <si>
+    <t>If you enjoy being treated as if you're doing them a favor, stay here.  They will put you in a room of THEIR choosing...sorry, no changing.  They will cancel your reservation a few days in advance and move you to their "sister property" down the street which is even worse.  AVOID AT ALL COSTS!  Pay a little more somewhere else and enjoy yourself.  A bad stay at any price is still a bad stay.  Again, AVOID!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r8069488-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>8069488</t>
+  </si>
+  <si>
+    <t>07/05/2007</t>
+  </si>
+  <si>
+    <t>Definitely not worth it!</t>
+  </si>
+  <si>
+    <t>I found a super low rate of $32 a night plus tax and fees on Hotwire and I took a chance on this one.  That proved to be a very poor decision.  We attempted to check in prior to the 3 PM check in time and was informed that we would have to wait to check in.  We found this odd since there was only 3 or 4 other cars in the entire parking lot.  Not a big deal but it would have been nice to drop off our luggage and freshen up before heading out again.  Upon our return, we were able to successfully check in.  However, when we attempted to use the toilet right after check in, the toilet would not properly flush and it promptly flooded the entire bathroom and portions of the living room.  When I returned to the check-in counter/office, I got the impression that most of the rooms at the hotel were suffering the same problem.  I also overheard the handyman (actually handywoman) mention that the AC was not working in the majority of the rooms.    We attempted to check-in to a second room, but after looking around at it for a minute or two, we decided to cut our losses and check-in somwhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>I found a super low rate of $32 a night plus tax and fees on Hotwire and I took a chance on this one.  That proved to be a very poor decision.  We attempted to check in prior to the 3 PM check in time and was informed that we would have to wait to check in.  We found this odd since there was only 3 or 4 other cars in the entire parking lot.  Not a big deal but it would have been nice to drop off our luggage and freshen up before heading out again.  Upon our return, we were able to successfully check in.  However, when we attempted to use the toilet right after check in, the toilet would not properly flush and it promptly flooded the entire bathroom and portions of the living room.  When I returned to the check-in counter/office, I got the impression that most of the rooms at the hotel were suffering the same problem.  I also overheard the handyman (actually handywoman) mention that the AC was not working in the majority of the rooms.    We attempted to check-in to a second room, but after looking around at it for a minute or two, we decided to cut our losses and check-in somwhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r6719064-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>6719064</t>
+  </si>
+  <si>
+    <t>01/30/2007</t>
+  </si>
+  <si>
+    <t>Okay if all you need is a bed to catch a few hours of sleep</t>
+  </si>
+  <si>
+    <t>For a cheap place to catch some sleep, it was okay.   Bed was okay.   Cleanliness was marginal, but the sheets and towels appeared clean.  Furnishings were worn and cabinetry needing repairs as doors were falling off literally.  Not a place I would stay if I knew I was spending any time in the room besides sleeping.</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r6088181-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>6088181</t>
+  </si>
+  <si>
+    <t>11/07/2006</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Very affordable ($51 a night total) great location, noisy heater, cookware and silverware was a bit dirty and the room/furnishings were a bit worn. Bed was a fairly comfortable 6.5 out of 10.Over my 7 day stay I had 3 large crickets visit my room. No idea where they came from but each time I was kinda grossed out.I would recommend 3rd floor/interior side room for maximum quiet. Property felt very safe. Staff was friendly and helpful. Location: 15 minute drive into the heart of downtown 4 minute drive to the awesome Cherry Creek shopping area</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33445-d119980-r5335535-Extended_Stay_America_Denver_Cherry_Creek-Glendale_Colorado.html</t>
+  </si>
+  <si>
+    <t>5335535</t>
+  </si>
+  <si>
+    <t>06/11/2006</t>
+  </si>
+  <si>
+    <t>Loved the Homestead in Cherry Creek</t>
+  </si>
+  <si>
+    <t>The Homestead in Cherry Creek was great! The rooms were very clean and the staff was very pleasant and accommodating. The rooms were as advertised smoke free. Most places say they are, but there is still a stale smoke odor. I appreciated the clean air. No trace of smoke whatsoever. Close to shopping and restaurants. We were very pleased with the price, the service and the atmosphere. The diner just behind the hotel was marvelous (Gunther Toody's) and w/in walking distance. We will definitely be returning.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2962,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2994,6789 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>127</v>
+      </c>
+      <c r="X10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>136</v>
+      </c>
+      <c r="X11" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>185</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L18" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>176</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>202</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>203</v>
+      </c>
+      <c r="X19" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>211</v>
+      </c>
+      <c r="O20" t="s">
+        <v>91</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>212</v>
+      </c>
+      <c r="X20" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>216</v>
+      </c>
+      <c r="J21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" t="s">
+        <v>219</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>220</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>221</v>
+      </c>
+      <c r="X21" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>225</v>
+      </c>
+      <c r="J22" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s">
+        <v>227</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>220</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>221</v>
+      </c>
+      <c r="X22" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>234</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>235</v>
+      </c>
+      <c r="X23" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" t="s">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s">
+        <v>241</v>
+      </c>
+      <c r="L24" t="s">
+        <v>242</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>234</v>
+      </c>
+      <c r="O24" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>243</v>
+      </c>
+      <c r="X24" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>247</v>
+      </c>
+      <c r="J25" t="s">
+        <v>248</v>
+      </c>
+      <c r="K25" t="s">
+        <v>249</v>
+      </c>
+      <c r="L25" t="s">
+        <v>250</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>185</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>251</v>
+      </c>
+      <c r="X25" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>255</v>
+      </c>
+      <c r="J26" t="s">
+        <v>256</v>
+      </c>
+      <c r="K26" t="s">
+        <v>257</v>
+      </c>
+      <c r="L26" t="s">
+        <v>258</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>259</v>
+      </c>
+      <c r="X26" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>262</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>263</v>
+      </c>
+      <c r="J27" t="s">
+        <v>264</v>
+      </c>
+      <c r="K27" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>267</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>268</v>
+      </c>
+      <c r="X27" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>271</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" t="s">
+        <v>274</v>
+      </c>
+      <c r="L28" t="s">
+        <v>275</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>276</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>277</v>
+      </c>
+      <c r="X28" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>280</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>281</v>
+      </c>
+      <c r="J29" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" t="s">
+        <v>283</v>
+      </c>
+      <c r="L29" t="s">
+        <v>284</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>285</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>286</v>
+      </c>
+      <c r="X29" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>289</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>290</v>
+      </c>
+      <c r="J30" t="s">
+        <v>291</v>
+      </c>
+      <c r="K30" t="s">
+        <v>292</v>
+      </c>
+      <c r="L30" t="s">
+        <v>293</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>285</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>294</v>
+      </c>
+      <c r="X30" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>297</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>298</v>
+      </c>
+      <c r="J31" t="s">
+        <v>299</v>
+      </c>
+      <c r="K31" t="s">
+        <v>300</v>
+      </c>
+      <c r="L31" t="s">
+        <v>301</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>285</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>302</v>
+      </c>
+      <c r="X31" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>305</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>306</v>
+      </c>
+      <c r="J32" t="s">
+        <v>307</v>
+      </c>
+      <c r="K32" t="s">
+        <v>308</v>
+      </c>
+      <c r="L32" t="s">
+        <v>309</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>310</v>
+      </c>
+      <c r="O32" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>311</v>
+      </c>
+      <c r="X32" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>314</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>315</v>
+      </c>
+      <c r="J33" t="s">
+        <v>316</v>
+      </c>
+      <c r="K33" t="s">
+        <v>317</v>
+      </c>
+      <c r="L33" t="s">
+        <v>318</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>319</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>320</v>
+      </c>
+      <c r="X33" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>323</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>324</v>
+      </c>
+      <c r="J34" t="s">
+        <v>325</v>
+      </c>
+      <c r="K34" t="s">
+        <v>326</v>
+      </c>
+      <c r="L34" t="s">
+        <v>327</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>328</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>329</v>
+      </c>
+      <c r="X34" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>332</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>333</v>
+      </c>
+      <c r="J35" t="s">
+        <v>334</v>
+      </c>
+      <c r="K35" t="s">
+        <v>335</v>
+      </c>
+      <c r="L35" t="s">
+        <v>336</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>337</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>338</v>
+      </c>
+      <c r="X35" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>341</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>342</v>
+      </c>
+      <c r="J36" t="s">
+        <v>343</v>
+      </c>
+      <c r="K36" t="s">
+        <v>344</v>
+      </c>
+      <c r="L36" t="s">
+        <v>345</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>346</v>
+      </c>
+      <c r="O36" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>347</v>
+      </c>
+      <c r="X36" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>350</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>351</v>
+      </c>
+      <c r="J37" t="s">
+        <v>352</v>
+      </c>
+      <c r="K37" t="s">
+        <v>353</v>
+      </c>
+      <c r="L37" t="s">
+        <v>354</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>355</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>356</v>
+      </c>
+      <c r="X37" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>359</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>360</v>
+      </c>
+      <c r="J38" t="s">
+        <v>361</v>
+      </c>
+      <c r="K38" t="s">
+        <v>362</v>
+      </c>
+      <c r="L38" t="s">
+        <v>363</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>364</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>365</v>
+      </c>
+      <c r="X38" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>368</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J39" t="s">
+        <v>370</v>
+      </c>
+      <c r="K39" t="s">
+        <v>371</v>
+      </c>
+      <c r="L39" t="s">
+        <v>372</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>364</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>373</v>
+      </c>
+      <c r="X39" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>376</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>377</v>
+      </c>
+      <c r="J40" t="s">
+        <v>378</v>
+      </c>
+      <c r="K40" t="s">
+        <v>379</v>
+      </c>
+      <c r="L40" t="s">
+        <v>380</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>364</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>381</v>
+      </c>
+      <c r="X40" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>384</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>385</v>
+      </c>
+      <c r="J41" t="s">
+        <v>386</v>
+      </c>
+      <c r="K41" t="s">
+        <v>387</v>
+      </c>
+      <c r="L41" t="s">
+        <v>388</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>364</v>
+      </c>
+      <c r="O41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>390</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>391</v>
+      </c>
+      <c r="J42" t="s">
+        <v>392</v>
+      </c>
+      <c r="K42" t="s">
+        <v>393</v>
+      </c>
+      <c r="L42" t="s">
+        <v>394</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>395</v>
+      </c>
+      <c r="O42" t="s">
+        <v>109</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>397</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>398</v>
+      </c>
+      <c r="J43" t="s">
+        <v>399</v>
+      </c>
+      <c r="K43" t="s">
+        <v>400</v>
+      </c>
+      <c r="L43" t="s">
+        <v>401</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>402</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>404</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>405</v>
+      </c>
+      <c r="J44" t="s">
+        <v>406</v>
+      </c>
+      <c r="K44" t="s">
+        <v>407</v>
+      </c>
+      <c r="L44" t="s">
+        <v>408</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>395</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>409</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>410</v>
+      </c>
+      <c r="J45" t="s">
+        <v>411</v>
+      </c>
+      <c r="K45" t="s">
+        <v>412</v>
+      </c>
+      <c r="L45" t="s">
+        <v>413</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>395</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>414</v>
+      </c>
+      <c r="X45" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>417</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>418</v>
+      </c>
+      <c r="J46" t="s">
+        <v>419</v>
+      </c>
+      <c r="K46" t="s">
+        <v>420</v>
+      </c>
+      <c r="L46" t="s">
+        <v>421</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>422</v>
+      </c>
+      <c r="X46" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>425</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>426</v>
+      </c>
+      <c r="J47" t="s">
+        <v>427</v>
+      </c>
+      <c r="K47" t="s">
+        <v>428</v>
+      </c>
+      <c r="L47" t="s">
+        <v>429</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>430</v>
+      </c>
+      <c r="O47" t="s">
+        <v>91</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>431</v>
+      </c>
+      <c r="X47" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>434</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>435</v>
+      </c>
+      <c r="J48" t="s">
+        <v>427</v>
+      </c>
+      <c r="K48" t="s">
+        <v>436</v>
+      </c>
+      <c r="L48" t="s">
+        <v>437</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>430</v>
+      </c>
+      <c r="O48" t="s">
+        <v>72</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>431</v>
+      </c>
+      <c r="X48" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>439</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>440</v>
+      </c>
+      <c r="J49" t="s">
+        <v>441</v>
+      </c>
+      <c r="K49" t="s">
+        <v>442</v>
+      </c>
+      <c r="L49" t="s">
+        <v>443</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>430</v>
+      </c>
+      <c r="O49" t="s">
+        <v>91</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>444</v>
+      </c>
+      <c r="X49" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>447</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>448</v>
+      </c>
+      <c r="J50" t="s">
+        <v>449</v>
+      </c>
+      <c r="K50" t="s">
+        <v>450</v>
+      </c>
+      <c r="L50" t="s">
+        <v>451</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>452</v>
+      </c>
+      <c r="O50" t="s">
+        <v>63</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>453</v>
+      </c>
+      <c r="X50" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>456</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>457</v>
+      </c>
+      <c r="J51" t="s">
+        <v>458</v>
+      </c>
+      <c r="K51" t="s">
+        <v>459</v>
+      </c>
+      <c r="L51" t="s">
+        <v>460</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>337</v>
+      </c>
+      <c r="O51" t="s">
+        <v>109</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>462</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>463</v>
+      </c>
+      <c r="J52" t="s">
+        <v>464</v>
+      </c>
+      <c r="K52" t="s">
+        <v>465</v>
+      </c>
+      <c r="L52" t="s">
+        <v>466</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>467</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>468</v>
+      </c>
+      <c r="X52" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>471</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>472</v>
+      </c>
+      <c r="J53" t="s">
+        <v>473</v>
+      </c>
+      <c r="K53" t="s">
+        <v>474</v>
+      </c>
+      <c r="L53" t="s">
+        <v>475</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>476</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>477</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>478</v>
+      </c>
+      <c r="J54" t="s">
+        <v>479</v>
+      </c>
+      <c r="K54" t="s">
+        <v>480</v>
+      </c>
+      <c r="L54" t="s">
+        <v>481</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>482</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>483</v>
+      </c>
+      <c r="X54" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>486</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>487</v>
+      </c>
+      <c r="J55" t="s">
+        <v>488</v>
+      </c>
+      <c r="K55" t="s">
+        <v>489</v>
+      </c>
+      <c r="L55" t="s">
+        <v>490</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>491</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>493</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>494</v>
+      </c>
+      <c r="J56" t="s">
+        <v>495</v>
+      </c>
+      <c r="K56" t="s">
+        <v>496</v>
+      </c>
+      <c r="L56" t="s">
+        <v>497</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>498</v>
+      </c>
+      <c r="O56" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>499</v>
+      </c>
+      <c r="X56" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>502</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>503</v>
+      </c>
+      <c r="J57" t="s">
+        <v>504</v>
+      </c>
+      <c r="K57" t="s">
+        <v>505</v>
+      </c>
+      <c r="L57" t="s">
+        <v>506</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>498</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>507</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>508</v>
+      </c>
+      <c r="J58" t="s">
+        <v>509</v>
+      </c>
+      <c r="K58" t="s">
+        <v>510</v>
+      </c>
+      <c r="L58" t="s">
+        <v>511</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>512</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>513</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>514</v>
+      </c>
+      <c r="J59" t="s">
+        <v>515</v>
+      </c>
+      <c r="K59" t="s">
+        <v>516</v>
+      </c>
+      <c r="L59" t="s">
+        <v>517</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>518</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>519</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>520</v>
+      </c>
+      <c r="J60" t="s">
+        <v>521</v>
+      </c>
+      <c r="K60" t="s">
+        <v>522</v>
+      </c>
+      <c r="L60" t="s">
+        <v>523</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>524</v>
+      </c>
+      <c r="O60" t="s">
+        <v>91</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>525</v>
+      </c>
+      <c r="X60" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>528</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>529</v>
+      </c>
+      <c r="J61" t="s">
+        <v>530</v>
+      </c>
+      <c r="K61" t="s">
+        <v>531</v>
+      </c>
+      <c r="L61" t="s">
+        <v>532</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>533</v>
+      </c>
+      <c r="X61" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>536</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>537</v>
+      </c>
+      <c r="J62" t="s">
+        <v>538</v>
+      </c>
+      <c r="K62" t="s">
+        <v>539</v>
+      </c>
+      <c r="L62" t="s">
+        <v>540</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>541</v>
+      </c>
+      <c r="O62" t="s">
+        <v>91</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>542</v>
+      </c>
+      <c r="X62" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>545</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>546</v>
+      </c>
+      <c r="J63" t="s">
+        <v>547</v>
+      </c>
+      <c r="K63" t="s">
+        <v>548</v>
+      </c>
+      <c r="L63" t="s">
+        <v>549</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>550</v>
+      </c>
+      <c r="O63" t="s">
+        <v>72</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>551</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>552</v>
+      </c>
+      <c r="J64" t="s">
+        <v>553</v>
+      </c>
+      <c r="K64" t="s">
+        <v>554</v>
+      </c>
+      <c r="L64" t="s">
+        <v>555</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>550</v>
+      </c>
+      <c r="O64" t="s">
+        <v>91</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>556</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>557</v>
+      </c>
+      <c r="J65" t="s">
+        <v>558</v>
+      </c>
+      <c r="K65" t="s">
+        <v>559</v>
+      </c>
+      <c r="L65" t="s">
+        <v>560</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>561</v>
+      </c>
+      <c r="O65" t="s">
+        <v>63</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>562</v>
+      </c>
+      <c r="X65" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>565</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>566</v>
+      </c>
+      <c r="J66" t="s">
+        <v>558</v>
+      </c>
+      <c r="K66" t="s">
+        <v>567</v>
+      </c>
+      <c r="L66" t="s">
+        <v>568</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>561</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>570</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>571</v>
+      </c>
+      <c r="J67" t="s">
+        <v>572</v>
+      </c>
+      <c r="K67" t="s">
+        <v>573</v>
+      </c>
+      <c r="L67" t="s">
+        <v>574</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>575</v>
+      </c>
+      <c r="O67" t="s">
+        <v>72</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>576</v>
+      </c>
+      <c r="X67" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>579</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>580</v>
+      </c>
+      <c r="J68" t="s">
+        <v>581</v>
+      </c>
+      <c r="K68" t="s">
+        <v>582</v>
+      </c>
+      <c r="L68" t="s">
+        <v>583</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>584</v>
+      </c>
+      <c r="O68" t="s">
+        <v>91</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>585</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>586</v>
+      </c>
+      <c r="J69" t="s">
+        <v>587</v>
+      </c>
+      <c r="K69" t="s">
+        <v>588</v>
+      </c>
+      <c r="L69" t="s">
+        <v>589</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>590</v>
+      </c>
+      <c r="O69" t="s">
+        <v>72</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>591</v>
+      </c>
+      <c r="X69" t="s">
+        <v>592</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>594</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>595</v>
+      </c>
+      <c r="J70" t="s">
+        <v>596</v>
+      </c>
+      <c r="K70" t="s">
+        <v>597</v>
+      </c>
+      <c r="L70" t="s">
+        <v>598</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>584</v>
+      </c>
+      <c r="O70" t="s">
+        <v>63</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>599</v>
+      </c>
+      <c r="X70" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>602</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>603</v>
+      </c>
+      <c r="J71" t="s">
+        <v>604</v>
+      </c>
+      <c r="K71" t="s">
+        <v>605</v>
+      </c>
+      <c r="L71" t="s">
+        <v>606</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>590</v>
+      </c>
+      <c r="O71" t="s">
+        <v>91</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>607</v>
+      </c>
+      <c r="X71" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>610</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>611</v>
+      </c>
+      <c r="J72" t="s">
+        <v>612</v>
+      </c>
+      <c r="K72" t="s">
+        <v>613</v>
+      </c>
+      <c r="L72" t="s">
+        <v>614</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>615</v>
+      </c>
+      <c r="X72" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>618</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>619</v>
+      </c>
+      <c r="J73" t="s">
+        <v>620</v>
+      </c>
+      <c r="K73" t="s">
+        <v>621</v>
+      </c>
+      <c r="L73" t="s">
+        <v>622</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>590</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>624</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>625</v>
+      </c>
+      <c r="J74" t="s">
+        <v>626</v>
+      </c>
+      <c r="K74" t="s">
+        <v>627</v>
+      </c>
+      <c r="L74" t="s">
+        <v>628</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>629</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>630</v>
+      </c>
+      <c r="X74" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>633</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>634</v>
+      </c>
+      <c r="J75" t="s">
+        <v>635</v>
+      </c>
+      <c r="K75" t="s">
+        <v>636</v>
+      </c>
+      <c r="L75" t="s">
+        <v>637</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>630</v>
+      </c>
+      <c r="X75" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>639</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>640</v>
+      </c>
+      <c r="J76" t="s">
+        <v>641</v>
+      </c>
+      <c r="K76" t="s">
+        <v>642</v>
+      </c>
+      <c r="L76" t="s">
+        <v>643</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>644</v>
+      </c>
+      <c r="X76" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>647</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>648</v>
+      </c>
+      <c r="J77" t="s">
+        <v>649</v>
+      </c>
+      <c r="K77" t="s">
+        <v>650</v>
+      </c>
+      <c r="L77" t="s">
+        <v>651</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>652</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>653</v>
+      </c>
+      <c r="X77" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>656</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>657</v>
+      </c>
+      <c r="J78" t="s">
+        <v>658</v>
+      </c>
+      <c r="K78" t="s">
+        <v>659</v>
+      </c>
+      <c r="L78" t="s">
+        <v>660</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>661</v>
+      </c>
+      <c r="X78" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>664</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>665</v>
+      </c>
+      <c r="J79" t="s">
+        <v>666</v>
+      </c>
+      <c r="K79" t="s">
+        <v>667</v>
+      </c>
+      <c r="L79" t="s">
+        <v>668</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>652</v>
+      </c>
+      <c r="O79" t="s">
+        <v>109</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>669</v>
+      </c>
+      <c r="X79" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>672</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>673</v>
+      </c>
+      <c r="J80" t="s">
+        <v>674</v>
+      </c>
+      <c r="K80" t="s">
+        <v>675</v>
+      </c>
+      <c r="L80" t="s">
+        <v>676</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>677</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>678</v>
+      </c>
+      <c r="X80" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>681</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>682</v>
+      </c>
+      <c r="J81" t="s">
+        <v>683</v>
+      </c>
+      <c r="K81" t="s">
+        <v>684</v>
+      </c>
+      <c r="L81" t="s">
+        <v>685</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>686</v>
+      </c>
+      <c r="O81" t="s">
+        <v>72</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>687</v>
+      </c>
+      <c r="X81" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>690</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>691</v>
+      </c>
+      <c r="J82" t="s">
+        <v>692</v>
+      </c>
+      <c r="K82" t="s">
+        <v>693</v>
+      </c>
+      <c r="L82" t="s">
+        <v>694</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>695</v>
+      </c>
+      <c r="O82" t="s">
+        <v>91</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>696</v>
+      </c>
+      <c r="X82" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>699</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>700</v>
+      </c>
+      <c r="J83" t="s">
+        <v>701</v>
+      </c>
+      <c r="K83" t="s">
+        <v>702</v>
+      </c>
+      <c r="L83" t="s">
+        <v>703</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>704</v>
+      </c>
+      <c r="O83" t="s">
+        <v>91</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>705</v>
+      </c>
+      <c r="X83" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>708</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>709</v>
+      </c>
+      <c r="J84" t="s">
+        <v>710</v>
+      </c>
+      <c r="K84" t="s">
+        <v>711</v>
+      </c>
+      <c r="L84" t="s">
+        <v>712</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>713</v>
+      </c>
+      <c r="X84" t="s">
+        <v>714</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>716</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>717</v>
+      </c>
+      <c r="J85" t="s">
+        <v>718</v>
+      </c>
+      <c r="K85" t="s">
+        <v>719</v>
+      </c>
+      <c r="L85" t="s">
+        <v>720</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>721</v>
+      </c>
+      <c r="O85" t="s">
+        <v>72</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>722</v>
+      </c>
+      <c r="X85" t="s">
+        <v>723</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>725</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>726</v>
+      </c>
+      <c r="J86" t="s">
+        <v>727</v>
+      </c>
+      <c r="K86" t="s">
+        <v>728</v>
+      </c>
+      <c r="L86" t="s">
+        <v>729</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>730</v>
+      </c>
+      <c r="O86" t="s">
+        <v>91</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>731</v>
+      </c>
+      <c r="X86" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>734</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>735</v>
+      </c>
+      <c r="J87" t="s">
+        <v>736</v>
+      </c>
+      <c r="K87" t="s">
+        <v>737</v>
+      </c>
+      <c r="L87" t="s">
+        <v>738</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>730</v>
+      </c>
+      <c r="O87" t="s">
+        <v>91</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>739</v>
+      </c>
+      <c r="X87" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>742</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>743</v>
+      </c>
+      <c r="J88" t="s">
+        <v>744</v>
+      </c>
+      <c r="K88" t="s">
+        <v>745</v>
+      </c>
+      <c r="L88" t="s">
+        <v>746</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>739</v>
+      </c>
+      <c r="X88" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>748</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>749</v>
+      </c>
+      <c r="J89" t="s">
+        <v>750</v>
+      </c>
+      <c r="K89" t="s">
+        <v>751</v>
+      </c>
+      <c r="L89" t="s">
+        <v>752</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>753</v>
+      </c>
+      <c r="O89" t="s">
+        <v>72</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>755</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>756</v>
+      </c>
+      <c r="J90" t="s">
+        <v>757</v>
+      </c>
+      <c r="K90" t="s">
+        <v>758</v>
+      </c>
+      <c r="L90" t="s">
+        <v>759</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>760</v>
+      </c>
+      <c r="O90" t="s">
+        <v>91</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>761</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>762</v>
+      </c>
+      <c r="J91" t="s">
+        <v>763</v>
+      </c>
+      <c r="K91" t="s">
+        <v>764</v>
+      </c>
+      <c r="L91" t="s">
+        <v>765</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>766</v>
+      </c>
+      <c r="O91" t="s">
+        <v>72</v>
+      </c>
+      <c r="P91" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>768</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>769</v>
+      </c>
+      <c r="J92" t="s">
+        <v>770</v>
+      </c>
+      <c r="K92" t="s">
+        <v>771</v>
+      </c>
+      <c r="L92" t="s">
+        <v>772</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>773</v>
+      </c>
+      <c r="O92" t="s">
+        <v>72</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>774</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>775</v>
+      </c>
+      <c r="J93" t="s">
+        <v>776</v>
+      </c>
+      <c r="K93" t="s">
+        <v>777</v>
+      </c>
+      <c r="L93" t="s">
+        <v>778</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>779</v>
+      </c>
+      <c r="O93" t="s">
+        <v>91</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>780</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>781</v>
+      </c>
+      <c r="J94" t="s">
+        <v>782</v>
+      </c>
+      <c r="K94" t="s">
+        <v>783</v>
+      </c>
+      <c r="L94" t="s">
+        <v>784</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>785</v>
+      </c>
+      <c r="O94" t="s">
+        <v>91</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>787</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>788</v>
+      </c>
+      <c r="J95" t="s">
+        <v>789</v>
+      </c>
+      <c r="K95" t="s">
+        <v>790</v>
+      </c>
+      <c r="L95" t="s">
+        <v>791</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>792</v>
+      </c>
+      <c r="O95" t="s">
+        <v>63</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>794</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>795</v>
+      </c>
+      <c r="J96" t="s">
+        <v>796</v>
+      </c>
+      <c r="K96" t="s">
+        <v>797</v>
+      </c>
+      <c r="L96" t="s">
+        <v>798</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>799</v>
+      </c>
+      <c r="O96" t="s">
+        <v>91</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>801</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>802</v>
+      </c>
+      <c r="J97" t="s">
+        <v>803</v>
+      </c>
+      <c r="K97" t="s">
+        <v>804</v>
+      </c>
+      <c r="L97" t="s">
+        <v>805</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>792</v>
+      </c>
+      <c r="O97" t="s">
+        <v>91</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>806</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>807</v>
+      </c>
+      <c r="J98" t="s">
+        <v>808</v>
+      </c>
+      <c r="K98" t="s">
+        <v>809</v>
+      </c>
+      <c r="L98" t="s">
+        <v>810</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>811</v>
+      </c>
+      <c r="O98" t="s">
+        <v>63</v>
+      </c>
+      <c r="P98" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>2</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>812</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>813</v>
+      </c>
+      <c r="J99" t="s">
+        <v>814</v>
+      </c>
+      <c r="K99" t="s">
+        <v>815</v>
+      </c>
+      <c r="L99" t="s">
+        <v>816</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>817</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>818</v>
+      </c>
+      <c r="J100" t="s">
+        <v>819</v>
+      </c>
+      <c r="K100" t="s">
+        <v>820</v>
+      </c>
+      <c r="L100" t="s">
+        <v>821</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>822</v>
+      </c>
+      <c r="O100" t="s">
+        <v>91</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>824</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>825</v>
+      </c>
+      <c r="J101" t="s">
+        <v>826</v>
+      </c>
+      <c r="K101" t="s">
+        <v>827</v>
+      </c>
+      <c r="L101" t="s">
+        <v>828</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="s">
+        <v>829</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>830</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>831</v>
+      </c>
+      <c r="J102" t="s">
+        <v>832</v>
+      </c>
+      <c r="K102" t="s">
+        <v>833</v>
+      </c>
+      <c r="L102" t="s">
+        <v>834</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>835</v>
+      </c>
+      <c r="O102" t="s">
+        <v>63</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>34662</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>836</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>837</v>
+      </c>
+      <c r="J103" t="s">
+        <v>838</v>
+      </c>
+      <c r="K103" t="s">
+        <v>839</v>
+      </c>
+      <c r="L103" t="s">
+        <v>840</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
